--- a/Money.xlsx
+++ b/Money.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/anand_nidamanuru_sap_com/Documents/Sync/Paisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="114_{941C0151-049D-FE41-A889-D7C560FB2FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8AD71F27-04FB-3E47-8CCA-46B4E6A1A2A1}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="114_{941C0151-049D-FE41-A889-D7C560FB2FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{824DEBCF-D78E-C649-9E2A-BB4F9E701421}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standing" sheetId="2" r:id="rId1"/>
@@ -24,26 +24,27 @@
     <sheet name="Account numbers" sheetId="6" r:id="rId9"/>
     <sheet name="Sal details - 2015" sheetId="13" state="hidden" r:id="rId10"/>
     <sheet name="Intlo Appu" sheetId="9" r:id="rId11"/>
-    <sheet name="Earnings, Home" sheetId="26" r:id="rId12"/>
-    <sheet name="Loans" sheetId="25" r:id="rId13"/>
-    <sheet name="Nani Credit card EMI" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="Loan for Bro" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="Chiti pata" sheetId="11" state="hidden" r:id="rId16"/>
-    <sheet name="SAP Shares" sheetId="17" r:id="rId17"/>
-    <sheet name="SAP Shares 2" sheetId="20" r:id="rId18"/>
-    <sheet name="Papai &amp; Tej" sheetId="18" r:id="rId19"/>
-    <sheet name="Intlo appu sim" sheetId="24" r:id="rId20"/>
+    <sheet name="Home" sheetId="26" r:id="rId12"/>
+    <sheet name="Earnings" sheetId="27" r:id="rId13"/>
+    <sheet name="Loans" sheetId="25" r:id="rId14"/>
+    <sheet name="Nani Credit card EMI" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Loan for Bro" sheetId="10" state="hidden" r:id="rId16"/>
+    <sheet name="Chiti pata" sheetId="11" state="hidden" r:id="rId17"/>
+    <sheet name="SMP Shares" sheetId="17" r:id="rId18"/>
+    <sheet name="OwnSAP Shares" sheetId="20" r:id="rId19"/>
+    <sheet name="Papai &amp; Tej" sheetId="18" state="hidden" r:id="rId20"/>
+    <sheet name="Intlo appu sim" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">History_Paisa!$A$1:$G$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Investments!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Investments (2)'!$A$1:$G$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'SAP Shares 2'!$G$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'OwnSAP Shares'!$I$1:$P$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Standing!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId21"/>
+    <pivotCache cacheId="0" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="599">
   <si>
     <t>Some time back</t>
   </si>
@@ -797,10 +798,6 @@
     <t>Principal</t>
   </si>
   <si>
-    <t>Duration
-Months</t>
-  </si>
-  <si>
     <t>Jameer</t>
   </si>
   <si>
@@ -1266,9 +1263,6 @@
     <t>Sep-10</t>
   </si>
   <si>
-    <t>Aug-13</t>
-  </si>
-  <si>
     <t>Perk1</t>
   </si>
   <si>
@@ -1357,9 +1351,6 @@
   </si>
   <si>
     <t>Total Gain EUR (Units * Gain)</t>
-  </si>
-  <si>
-    <t>(Go To Transaction and click on Date)</t>
   </si>
   <si>
     <t>Tx Fee (EUR)</t>
@@ -1665,9 +1656,6 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>In hand -expenses - rent</t>
-  </si>
-  <si>
     <t>Personal Loan</t>
   </si>
   <si>
@@ -1797,9 +1785,6 @@
     <t>To Others</t>
   </si>
   <si>
-    <t>From Dad</t>
-  </si>
-  <si>
     <t>Akkai</t>
   </si>
   <si>
@@ -1828,6 +1813,72 @@
   </si>
   <si>
     <t>PPF</t>
+  </si>
+  <si>
+    <t>In hand - expenses - rent</t>
+  </si>
+  <si>
+    <t>Duration Months</t>
+  </si>
+  <si>
+    <t>Personal Loan 12L</t>
+  </si>
+  <si>
+    <t>To Dad total</t>
+  </si>
+  <si>
+    <t>Vadranam</t>
+  </si>
+  <si>
+    <t>My Marriage</t>
+  </si>
+  <si>
+    <t>Akkai ki</t>
+  </si>
+  <si>
+    <t>Rent for Pandaripuram house</t>
+  </si>
+  <si>
+    <t>Total Purchase price</t>
+  </si>
+  <si>
+    <t>Indian Shares via ShareKhan</t>
+  </si>
+  <si>
+    <t>Total Sell Price</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Per share sell price INR</t>
+  </si>
+  <si>
+    <t>Pur Price from Sal slip</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>EUR to INR</t>
+  </si>
+  <si>
+    <t>NEFT CR-CITI0100000-RTGS FTU PAYLINK P32 TRANSIT AC-ANAND NIDAMANURU-CITIN19063821009</t>
+  </si>
+  <si>
+    <t>CITIN19063821009</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>NEFT CR-CITI0100000-RTGS FTU PAYLINK P32 TRANSIT AC-ANAND NIDAMANURU-CITIN20023159300</t>
+  </si>
+  <si>
+    <t>CITIN20023159300</t>
+  </si>
+  <si>
+    <t>Sep-13</t>
   </si>
 </sst>
 </file>
@@ -1841,9 +1892,16 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2003,8 +2061,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2090,6 +2155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,18 +2304,18 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2254,101 +2325,101 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="5"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2358,40 +2429,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
@@ -3412,7 +3488,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3426,13 +3502,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" t="s">
         <v>242</v>
-      </c>
-      <c r="E4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3446,10 +3522,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3463,13 +3539,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" t="s">
         <v>354</v>
-      </c>
-      <c r="E6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3483,10 +3559,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3497,13 +3573,13 @@
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3582,13 +3658,13 @@
         <v>5000</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3664,42 +3740,42 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="J1" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="K1" s="58" t="s">
         <v>265</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>266</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>237</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="22">
         <v>651718.19999999995</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="24">
         <v>10000</v>
@@ -3719,7 +3795,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="29">
         <v>1210333.8</v>
@@ -3747,13 +3823,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="29">
         <v>65861.52</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="24">
         <v>15000</v>
@@ -3775,13 +3851,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="29">
         <v>78206.16</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="24">
         <v>10000</v>
@@ -3807,7 +3883,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="29">
         <v>97757.759999999995</v>
@@ -3822,7 +3898,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="29">
         <v>31347.599999999999</v>
@@ -3832,7 +3908,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="29">
         <f>SUM(B2:B7)</f>
@@ -3849,24 +3925,24 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="29">
         <v>533803</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
-      <c r="H10" s="109" t="s">
-        <v>279</v>
-      </c>
-      <c r="I10" s="109"/>
+      <c r="H10" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="112"/>
       <c r="J10" s="41"/>
       <c r="K10" s="42"/>
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="29">
         <f>SUM(B8,B10)</f>
@@ -3882,28 +3958,28 @@
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
       <c r="H12" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="J12" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="K12" s="62" t="s">
         <v>283</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>284</v>
       </c>
       <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="24">
         <v>6600</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="43"/>
@@ -3919,7 +3995,7 @@
         <v>134837.68250000002</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I14" s="63">
         <f>B2/12</f>
@@ -3936,14 +4012,14 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B15" s="29">
         <f>SUM(B2+B4+B6+F6 + F3 + B13)</f>
         <v>1997271.28</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I15" s="63">
         <v>14000</v>
@@ -3959,13 +4035,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" s="24">
         <v>150000</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I16" s="63">
         <v>13500</v>
@@ -4001,7 +4077,7 @@
         <v>96828.18</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="64">
         <f>+I14*10%</f>
@@ -4016,7 +4092,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="24">
         <v>2400</v>
@@ -4029,14 +4105,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="48">
         <f>B15-SUM(B16:B19)</f>
         <v>1548043.1</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I20" s="64">
         <f>+I14*40%</f>
@@ -4051,7 +4127,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="H21" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21" s="64">
         <f>+I15</f>
@@ -4066,7 +4142,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="H22" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I22" s="64">
         <f>+I16-I18</f>
@@ -4088,7 +4164,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="H24" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I24" s="64">
         <f>MIN(I20:I22)</f>
@@ -4301,7 +4377,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B12">
         <v>1100000</v>
@@ -4309,7 +4385,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B13">
         <v>1400000</v>
@@ -4317,7 +4393,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B14">
         <v>500000</v>
@@ -4325,7 +4401,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B15">
         <v>400000</v>
@@ -4333,7 +4409,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B16">
         <v>1000000</v>
@@ -4341,7 +4417,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B17">
         <v>600000</v>
@@ -4349,7 +4425,7 @@
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B18">
         <v>200000</v>
@@ -4439,10 +4515,585 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C55856-B909-624C-AD7E-8014FE3702C7}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickTop="1">
+      <c r="B2">
+        <v>150000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>150000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H3">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>1200000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B5">
+        <v>-560000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B6" s="111">
+        <v>-100000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B7">
+        <v>200000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B8">
+        <v>-40000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>40878</v>
+      </c>
+      <c r="C9">
+        <v>270000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B10">
+        <v>120000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>41311</v>
+      </c>
+      <c r="B11">
+        <v>75000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>41346</v>
+      </c>
+      <c r="C12">
+        <v>80000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>41382</v>
+      </c>
+      <c r="C14">
+        <v>32000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>41499</v>
+      </c>
+      <c r="B15">
+        <v>150000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>41734</v>
+      </c>
+      <c r="B16">
+        <v>75000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>41834</v>
+      </c>
+      <c r="B17">
+        <v>106000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="92">
+        <v>41771</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B19">
+        <v>75000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="92">
+        <v>42193</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13">
+        <v>30000</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="92">
+        <v>42370</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>42474</v>
+      </c>
+      <c r="B23">
+        <v>75000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="92">
+        <v>42522</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13">
+        <v>20000</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B25">
+        <v>22000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="92">
+        <v>42552</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B27">
+        <v>75000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B28">
+        <v>90000</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B29">
+        <v>75000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B30">
+        <v>65000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31">
+        <v>15000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B33">
+        <v>20000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C34">
+        <v>1000000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>571</v>
+      </c>
+      <c r="E34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B36">
+        <v>75000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B37">
+        <v>400000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B38">
+        <v>200000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2D48C8-D456-F042-A70B-19E9C09B008F}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4452,65 +5103,53 @@
     <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A1" s="108" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="108" t="s">
-        <v>524</v>
-      </c>
-      <c r="D1" s="108" t="s">
+      <c r="F1" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>534</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="107" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="108" t="s">
-        <v>526</v>
-      </c>
-      <c r="F1" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="108" t="s">
-        <v>527</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="108" t="s">
-        <v>538</v>
-      </c>
-      <c r="J1" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="107" t="s">
+      <c r="N1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="16" thickTop="1">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="105">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B2" s="104">
         <v>11.56</v>
@@ -4537,17 +5176,14 @@
         <v>0.7</v>
       </c>
       <c r="J2" s="104"/>
-      <c r="O2">
-        <v>150000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="M2">
+        <v>36.35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="105">
         <v>41000</v>
       </c>
@@ -4576,17 +5212,14 @@
         <v>0.7</v>
       </c>
       <c r="J3" s="104"/>
-      <c r="O3">
-        <v>150000</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>572</v>
-      </c>
-      <c r="R3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="M3">
+        <v>15.47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="105">
         <v>41365</v>
       </c>
@@ -4615,17 +5248,14 @@
         <v>0.7</v>
       </c>
       <c r="J4" s="104"/>
-      <c r="O4">
-        <v>1200000</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="M4">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="105">
         <v>41730</v>
       </c>
@@ -4656,20 +5286,14 @@
       <c r="J5" s="104">
         <v>0.5</v>
       </c>
-      <c r="N5" s="1">
-        <v>40087</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>172</v>
-      </c>
-      <c r="R5" t="s">
-        <v>173</v>
-      </c>
-      <c r="S5">
-        <v>-560000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="105">
         <v>42095</v>
       </c>
@@ -4700,20 +5324,14 @@
       <c r="J6" s="104">
         <v>0.3</v>
       </c>
-      <c r="N6" s="1">
-        <v>40299</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S6">
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="M6">
+        <v>20.2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="105">
         <v>42461</v>
       </c>
@@ -4744,20 +5362,14 @@
       <c r="J7" s="104">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
-        <v>40634</v>
-      </c>
-      <c r="O7">
-        <v>200000</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>172</v>
-      </c>
-      <c r="R7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="105">
         <v>42826</v>
       </c>
@@ -4788,20 +5400,14 @@
       <c r="J8" s="104">
         <v>0.2</v>
       </c>
-      <c r="N8" s="1">
-        <v>40817</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>172</v>
-      </c>
-      <c r="R8" t="s">
-        <v>176</v>
-      </c>
-      <c r="S8">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="105">
         <v>43191</v>
       </c>
@@ -4830,20 +5436,15 @@
         <v>0.7</v>
       </c>
       <c r="J9" s="104"/>
-      <c r="N9" s="1">
-        <v>40878</v>
-      </c>
-      <c r="P9">
-        <v>270000</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>349</v>
-      </c>
-      <c r="R9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="M9">
+        <f>10*0.45</f>
+        <v>4.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="105">
         <v>43556</v>
       </c>
@@ -4872,22 +5473,16 @@
         <v>0.7</v>
       </c>
       <c r="J10" s="104"/>
-      <c r="N10" s="1">
-        <v>41000</v>
-      </c>
-      <c r="O10">
-        <v>120000</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>172</v>
-      </c>
-      <c r="R10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="106">
-        <v>43921</v>
+      <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="105">
+        <v>43922</v>
       </c>
       <c r="B11" s="104">
         <v>42.9</v>
@@ -4914,603 +5509,73 @@
         <v>0.7</v>
       </c>
       <c r="J11" s="104"/>
-      <c r="N11" s="1">
-        <v>41311</v>
-      </c>
-      <c r="O11">
-        <v>75000</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="H12" s="104">
-        <v>4.75</v>
-      </c>
-      <c r="I12" s="104">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="1">
-        <v>41346</v>
-      </c>
-      <c r="P12">
-        <v>80000</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="N13" s="1">
-        <v>41364</v>
-      </c>
-      <c r="O13">
-        <v>100000</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="N14" s="1">
-        <v>41382</v>
-      </c>
-      <c r="P14">
-        <v>32000</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>349</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="M11">
+        <v>7.2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="105"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="M12">
+        <v>6.56</v>
+      </c>
+      <c r="N12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="N15" s="1">
-        <v>41499</v>
-      </c>
-      <c r="O15">
-        <v>150000</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>172</v>
-      </c>
-      <c r="R15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="N16" s="1">
-        <v>41734</v>
-      </c>
-      <c r="O16">
-        <v>75000</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>172</v>
-      </c>
-      <c r="R16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="N17" s="1">
-        <v>41834</v>
-      </c>
-      <c r="O17">
-        <v>106000</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>172</v>
-      </c>
-      <c r="R17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="N18" s="92">
-        <v>41771</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13">
-        <v>50000</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="N19" s="1">
-        <v>42102</v>
-      </c>
-      <c r="O19">
-        <v>75000</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>172</v>
-      </c>
-      <c r="R19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="I20">
-        <v>13.46</v>
-      </c>
-      <c r="N20" s="92">
-        <v>42193</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13">
-        <v>30000</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="S20" s="13"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21">
-        <v>36.35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>530</v>
-      </c>
-      <c r="I21">
-        <v>15.47</v>
-      </c>
-      <c r="N21" s="1">
-        <v>42246</v>
-      </c>
-      <c r="O21">
-        <v>20000</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>172</v>
-      </c>
-      <c r="R21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22">
-        <v>15.47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>531</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="N22" s="92">
-        <v>42370</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13">
-        <v>50000</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>532</v>
-      </c>
-      <c r="I23">
-        <v>2.7</v>
-      </c>
-      <c r="N23" s="1">
-        <v>42474</v>
-      </c>
-      <c r="O23">
-        <v>75000</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>172</v>
-      </c>
-      <c r="R23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>492</v>
-      </c>
-      <c r="I24">
-        <v>1.5</v>
-      </c>
-      <c r="N24" s="92">
-        <v>42522</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13">
-        <v>20000</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="S24" s="13"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25">
-        <v>20.2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>578</v>
-      </c>
-      <c r="N25" s="1">
-        <v>42522</v>
-      </c>
-      <c r="O25">
-        <v>22000</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>573</v>
-      </c>
-      <c r="R25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>534</v>
-      </c>
-      <c r="I26">
-        <v>4.75</v>
-      </c>
-      <c r="N26" s="1">
-        <v>42552</v>
-      </c>
-      <c r="P26">
-        <v>10000</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="R26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>535</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="1">
-        <v>42887</v>
-      </c>
-      <c r="O27">
-        <v>75000</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>172</v>
-      </c>
-      <c r="R27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28">
-        <f>10*0.45</f>
-        <v>4.5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>362</v>
-      </c>
-      <c r="N28" s="1">
-        <v>43221</v>
-      </c>
-      <c r="O28">
-        <v>90000</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R28" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29">
-        <v>3.2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>536</v>
-      </c>
-      <c r="N29" s="1">
-        <v>43586</v>
-      </c>
-      <c r="O29">
-        <v>75000</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>172</v>
-      </c>
-      <c r="R29" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="B30">
-        <v>7.2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>537</v>
-      </c>
-      <c r="N30" s="1">
-        <v>43586</v>
-      </c>
-      <c r="O30">
-        <v>65000</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R30" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31">
-        <v>6.56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>300</v>
-      </c>
-      <c r="P31">
-        <v>15000</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>9</v>
-      </c>
-      <c r="R31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32">
+    <row r="13" spans="1:14">
+      <c r="H13">
+        <f>SUM(H2:H11)</f>
+        <v>13.56</v>
+      </c>
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
-        <v>574</v>
-      </c>
-      <c r="O32">
-        <v>5000</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>172</v>
-      </c>
-      <c r="R32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="B33">
+      <c r="N13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="M14">
         <f>SUM(J5:J8)</f>
         <v>1.5</v>
       </c>
-      <c r="C33" t="s">
-        <v>308</v>
-      </c>
-      <c r="N33" s="1">
-        <v>43952</v>
-      </c>
-      <c r="O33">
-        <v>20000</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>172</v>
-      </c>
-      <c r="R33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="B34">
-        <v>4.75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>579</v>
-      </c>
-      <c r="N34" s="1">
-        <v>43831</v>
-      </c>
-      <c r="P34">
-        <v>1000000</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="N14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15">
+        <v>6.75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17">
+        <v>2.4</v>
+      </c>
+      <c r="N17" t="s">
         <v>576</v>
       </c>
-      <c r="R34" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="B35">
-        <v>3.5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>172</v>
-      </c>
-      <c r="R35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="B36">
-        <v>2.4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>581</v>
-      </c>
-      <c r="N36" s="1">
-        <v>43983</v>
-      </c>
-      <c r="O36">
-        <v>75000</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>172</v>
-      </c>
-      <c r="R36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="B37">
-        <f>SUM(B21:B36)</f>
-        <v>173.62999999999997</v>
-      </c>
-      <c r="N37" s="1">
-        <v>44068</v>
-      </c>
-      <c r="O37">
-        <v>400000</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>172</v>
-      </c>
-      <c r="R37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="N38" s="1">
-        <v>44154</v>
-      </c>
-      <c r="O38">
-        <v>200000</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="32">
-      <c r="A42" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="18">
-        <v>30698</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43">
-        <v>10.3</v>
-      </c>
-      <c r="D43">
-        <v>2400000</v>
-      </c>
-      <c r="E43">
-        <v>120</v>
-      </c>
-      <c r="F43" s="19">
-        <f>PMT(C43/12/100,E43,D43)</f>
-        <v>-32116.220104640637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="18">
-        <v>-9500</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="18">
-        <v>21951</v>
-      </c>
-      <c r="B45" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45">
-        <v>11.25</v>
-      </c>
-      <c r="D45">
-        <v>1200000</v>
-      </c>
-      <c r="E45">
-        <f>6*12+6</f>
-        <v>78</v>
-      </c>
-      <c r="F45" s="19">
-        <f>PMT(C45/12/100,E45,D45)</f>
-        <v>-21758.022248016005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="18">
-        <f>SUM(A43:A45)</f>
-        <v>43149</v>
-      </c>
-      <c r="B46" t="s">
-        <v>237</v>
+    </row>
+    <row r="18" spans="13:14">
+      <c r="M18">
+        <f>SUM(M2:M17)</f>
+        <v>175.62999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5518,12 +5583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BE986E-3A18-7B41-8F07-1A6754980F89}">
   <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5533,6 +5598,7 @@
     <col min="17" max="17" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5546,7 +5612,7 @@
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
@@ -5555,7 +5621,7 @@
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="68" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
@@ -5564,9 +5630,9 @@
       </c>
       <c r="O1" s="68"/>
       <c r="P1" s="68" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q1" s="111"/>
+        <v>535</v>
+      </c>
+      <c r="Q1" s="108"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
@@ -5608,19 +5674,19 @@
         <v>3</v>
       </c>
       <c r="Q2" s="100" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="R2" s="99" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="T2" s="74" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="U2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="V2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -5634,10 +5700,10 @@
         <v>42251</v>
       </c>
       <c r="P3" s="82" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="R3" s="102"/>
       <c r="S3" s="1">
@@ -5665,11 +5731,11 @@
         <v>42251</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q4" s="101"/>
       <c r="R4" s="102" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="S4" s="1">
         <v>43952</v>
@@ -5696,10 +5762,10 @@
         <v>100</v>
       </c>
       <c r="P5" s="82" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="101" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="R5" s="102"/>
       <c r="S5" s="1">
@@ -5727,10 +5793,10 @@
         <v>42251</v>
       </c>
       <c r="P6" s="82" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q6" s="101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R6" s="102"/>
       <c r="S6" s="1">
@@ -5758,10 +5824,10 @@
         <v>42251</v>
       </c>
       <c r="P7" s="82" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q7" s="101" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="R7" s="102"/>
       <c r="S7" s="1">
@@ -5790,10 +5856,10 @@
         <v>188866</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q8" s="101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R8" s="102"/>
       <c r="S8" s="1">
@@ -5821,10 +5887,10 @@
         <v>42251</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q9" s="101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R9" s="102"/>
       <c r="S9" s="1">
@@ -5852,10 +5918,10 @@
         <v>42251</v>
       </c>
       <c r="P10" s="82" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R10" s="102"/>
       <c r="S10" s="1">
@@ -5880,11 +5946,11 @@
         <v>42251</v>
       </c>
       <c r="P11" s="82" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q11" s="101"/>
       <c r="R11" s="102" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="S11" s="1">
         <v>43221</v>
@@ -5912,11 +5978,11 @@
         <v>42251</v>
       </c>
       <c r="P12" s="82" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q12" s="101"/>
       <c r="R12" s="102" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="S12" s="1">
         <v>42795</v>
@@ -5943,10 +6009,10 @@
         <v>42251</v>
       </c>
       <c r="P13" s="82" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q13" s="101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R13" s="102"/>
       <c r="S13" s="1">
@@ -5974,10 +6040,10 @@
         <v>42251</v>
       </c>
       <c r="P14" s="82" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R14" s="102"/>
     </row>
@@ -5992,11 +6058,11 @@
         <v>42251</v>
       </c>
       <c r="P15" s="82" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q15" s="101"/>
       <c r="R15" s="102" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -6010,14 +6076,14 @@
         <v>42251</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="103" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R16" s="102"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:21">
       <c r="B17">
         <v>30458</v>
       </c>
@@ -6028,14 +6094,14 @@
         <v>42251</v>
       </c>
       <c r="P17" s="82" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="101"/>
       <c r="R17" s="102" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18">
         <v>30458</v>
       </c>
@@ -6046,14 +6112,14 @@
         <v>42251</v>
       </c>
       <c r="P18" s="82" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q18" s="103" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R18" s="102"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:21">
       <c r="B19">
         <v>30458</v>
       </c>
@@ -6067,7 +6133,7 @@
       <c r="Q19" s="101"/>
       <c r="R19" s="102"/>
     </row>
-    <row r="20" spans="2:19" ht="17">
+    <row r="20" spans="2:21" ht="17">
       <c r="B20">
         <v>30458</v>
       </c>
@@ -6081,7 +6147,7 @@
       <c r="Q20" s="98"/>
       <c r="R20" s="97"/>
     </row>
-    <row r="21" spans="2:19" ht="17">
+    <row r="21" spans="2:21" ht="17">
       <c r="B21">
         <v>30458</v>
       </c>
@@ -6097,7 +6163,7 @@
       <c r="R21" s="97"/>
       <c r="S21" s="79"/>
     </row>
-    <row r="22" spans="2:19" ht="17">
+    <row r="22" spans="2:21" ht="17">
       <c r="B22">
         <v>30458</v>
       </c>
@@ -6112,7 +6178,7 @@
       <c r="R22" s="97"/>
       <c r="S22" s="79"/>
     </row>
-    <row r="23" spans="2:19" ht="17">
+    <row r="23" spans="2:21" ht="17">
       <c r="B23">
         <v>30458</v>
       </c>
@@ -6127,7 +6193,7 @@
       <c r="R23" s="97"/>
       <c r="S23" s="79"/>
     </row>
-    <row r="24" spans="2:19" ht="17">
+    <row r="24" spans="2:21" ht="17">
       <c r="C24">
         <f>SUM(B12:B23)</f>
         <v>361959</v>
@@ -6144,7 +6210,7 @@
       <c r="R24" s="97"/>
       <c r="S24" s="79"/>
     </row>
-    <row r="25" spans="2:19" ht="17">
+    <row r="25" spans="2:21" ht="17">
       <c r="B25">
         <v>30458</v>
       </c>
@@ -6158,7 +6224,7 @@
       <c r="Q25" s="98"/>
       <c r="R25" s="97"/>
     </row>
-    <row r="26" spans="2:19" ht="17">
+    <row r="26" spans="2:21" ht="16">
       <c r="B26">
         <v>30458</v>
       </c>
@@ -6168,10 +6234,24 @@
       <c r="L26">
         <v>38525</v>
       </c>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="P26" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="T26" s="109" t="s">
+        <v>578</v>
+      </c>
+      <c r="U26" s="110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27">
         <v>30458</v>
       </c>
@@ -6181,8 +6261,27 @@
       <c r="L27">
         <v>38525</v>
       </c>
-    </row>
-    <row r="28" spans="2:19">
+      <c r="P27" s="18">
+        <v>30698</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27">
+        <v>10.3</v>
+      </c>
+      <c r="S27">
+        <v>2400000</v>
+      </c>
+      <c r="T27">
+        <v>120</v>
+      </c>
+      <c r="U27" s="19">
+        <f>PMT(R27/12/100,T27,S27)</f>
+        <v>-32116.220104640637</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28">
         <v>30458</v>
       </c>
@@ -6192,8 +6291,14 @@
       <c r="L28">
         <v>38525</v>
       </c>
-    </row>
-    <row r="29" spans="2:19">
+      <c r="P28" s="18">
+        <v>-9500</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29">
         <v>30458</v>
       </c>
@@ -6203,8 +6308,28 @@
       <c r="L29">
         <v>38525</v>
       </c>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="P29" s="18">
+        <v>21951</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>236</v>
+      </c>
+      <c r="R29">
+        <v>11.25</v>
+      </c>
+      <c r="S29">
+        <v>1200000</v>
+      </c>
+      <c r="T29">
+        <f>6*12+6</f>
+        <v>78</v>
+      </c>
+      <c r="U29" s="19">
+        <f>PMT(R29/12/100,T29,S29)</f>
+        <v>-21758.022248016005</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30">
         <v>30458</v>
       </c>
@@ -6214,8 +6339,15 @@
       <c r="L30">
         <v>38525</v>
       </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="P30" s="18">
+        <f>SUM(P27:P29)</f>
+        <v>43149</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31">
         <v>30458</v>
       </c>
@@ -6226,7 +6358,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:21">
       <c r="B32">
         <v>30458</v>
       </c>
@@ -6767,7 +6899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -6789,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>177</v>
@@ -6810,7 +6942,7 @@
         <v>-30000</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6837,7 +6969,7 @@
         <v>30000</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6864,7 +6996,7 @@
         <v>5000</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6899,7 +7031,7 @@
         <v>2160</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7006,7 +7138,7 @@
         <v>4000</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7065,7 +7197,7 @@
         <v>3000</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7163,7 +7295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -7325,7 +7457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -7761,12 +7893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7777,14 +7909,15 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -7793,37 +7926,37 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>388</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>389</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="F1" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="G1" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" s="72" t="s">
         <v>392</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>416</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>393</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="71" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L1" s="71" t="s">
         <v>18</v>
@@ -7832,16 +7965,16 @@
         <v>237</v>
       </c>
       <c r="N1" s="71" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O1" s="71" t="s">
         <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -7849,7 +7982,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1">
         <v>40410</v>
@@ -7871,7 +8004,7 @@
         <v>25117.824000000001</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J2">
         <v>15050</v>
@@ -7880,14 +8013,14 @@
         <v>9955</v>
       </c>
       <c r="L2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M2">
         <f>J2+K2</f>
         <v>25005</v>
       </c>
       <c r="O2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16">
@@ -7895,7 +8028,7 @@
         <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1">
         <v>41047</v>
@@ -7917,7 +8050,7 @@
         <v>39783.369600000005</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J3">
         <v>23995</v>
@@ -7926,14 +8059,14 @@
         <v>13925</v>
       </c>
       <c r="L3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M9" si="1">J3+K3</f>
         <v>37920</v>
       </c>
       <c r="O3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="T3" s="70"/>
       <c r="U3" s="70"/>
@@ -7945,7 +8078,7 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="1">
         <v>41500</v>
@@ -7964,7 +8097,7 @@
         <v>55029</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>395</v>
+        <v>598</v>
       </c>
       <c r="J4">
         <v>32926</v>
@@ -7973,14 +8106,14 @@
         <v>21754</v>
       </c>
       <c r="L4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
         <v>54680</v>
       </c>
       <c r="O4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -7988,7 +8121,7 @@
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="1">
         <v>41508</v>
@@ -8007,13 +8140,13 @@
         <v>19138.599999999999</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>395</v>
+        <v>598</v>
       </c>
       <c r="K5">
         <v>18958</v>
       </c>
       <c r="L5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
@@ -8025,7 +8158,7 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="1">
         <v>41775</v>
@@ -8047,7 +8180,7 @@
         <v>50656.901999999995</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J6">
         <v>32466</v>
@@ -8056,7 +8189,7 @@
         <v>20773</v>
       </c>
       <c r="L6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
@@ -8068,7 +8201,7 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1">
         <v>42131</v>
@@ -8087,13 +8220,13 @@
         <v>58219.603199999998</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K7">
         <v>95110</v>
       </c>
       <c r="L7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
@@ -8103,7 +8236,7 @@
         <v>37365</v>
       </c>
       <c r="O7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -8111,7 +8244,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" s="1">
         <v>42598</v>
@@ -8130,13 +8263,13 @@
         <v>11179.4624</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K8">
         <v>23522</v>
       </c>
       <c r="L8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
@@ -8146,10 +8279,10 @@
         <v>10194</v>
       </c>
       <c r="O8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -8157,7 +8290,7 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="1">
         <v>42861</v>
@@ -8176,13 +8309,13 @@
         <v>26438.874000000003</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K9">
         <v>26377.200000000001</v>
       </c>
       <c r="L9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -8200,68 +8333,71 @@
     </row>
     <row r="12" spans="1:24">
       <c r="B12" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>445</v>
-      </c>
       <c r="D12" s="71" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <v>280</v>
       </c>
+      <c r="C13" s="1">
+        <v>43266</v>
+      </c>
       <c r="D13">
         <v>77.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>389</v>
-      </c>
       <c r="C14" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>424</v>
-      </c>
       <c r="H14" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="I14" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="I14" s="71" t="s">
-        <v>443</v>
-      </c>
       <c r="K14" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="L14" s="71" t="s">
-        <v>389</v>
-      </c>
       <c r="M14" s="71" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N14" s="71" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O14" s="71" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="19" customHeight="1">
@@ -8269,7 +8405,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C15">
         <v>35.119999999999997</v>
@@ -8298,7 +8434,7 @@
         <v>43266</v>
       </c>
       <c r="L15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M15">
         <v>104.96</v>
@@ -8316,7 +8452,7 @@
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16">
         <v>46.02</v>
@@ -8345,7 +8481,7 @@
         <v>43580</v>
       </c>
       <c r="L16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M16">
         <v>114.22</v>
@@ -8355,6 +8491,10 @@
       </c>
       <c r="O16">
         <v>173471.99</v>
+      </c>
+      <c r="P16">
+        <f>O16/(M16*N16)</f>
+        <v>75.937659779373135</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" customHeight="1">
@@ -8362,7 +8502,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17">
         <v>53.95</v>
@@ -8393,7 +8533,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C18">
         <v>56.29</v>
@@ -8424,7 +8564,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19">
         <v>55.45</v>
@@ -8450,10 +8590,13 @@
         <f t="shared" si="3"/>
         <v>51760.138888888898</v>
       </c>
+      <c r="K19" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1">
       <c r="E20" s="74" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F20">
         <f>SUM(F15:F19)</f>
@@ -8467,44 +8610,44 @@
         <f>SUM(I15:I19)</f>
         <v>240493.78069618341</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
-        <v>389</v>
-      </c>
-      <c r="M20" t="s">
-        <v>392</v>
-      </c>
-      <c r="N20" t="s">
-        <v>403</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="L20" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="N20" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="O20" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="P20" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="S20" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="P20" t="s">
+      <c r="T20" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="U20" s="71" t="s">
         <v>451</v>
-      </c>
-      <c r="R20" t="s">
-        <v>440</v>
-      </c>
-      <c r="S20" t="s">
-        <v>452</v>
-      </c>
-      <c r="T20" t="s">
-        <v>453</v>
-      </c>
-      <c r="U20" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="75"/>
       <c r="E21" s="74" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G21">
         <f>404415 - 227 - 227</f>
@@ -8515,7 +8658,7 @@
         <v>40633</v>
       </c>
       <c r="L21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M21">
         <v>373.9</v>
@@ -8551,7 +8694,7 @@
     <row r="22" spans="1:21">
       <c r="A22" s="75"/>
       <c r="E22" s="74" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G22">
         <f>G21-G20</f>
@@ -8569,7 +8712,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="E24" s="78" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G24" s="13">
         <v>404415</v>
@@ -8586,7 +8729,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="E25" s="78" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G25">
         <v>-227</v>
@@ -8598,7 +8741,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="E26" s="78" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G26">
         <v>-227</v>
@@ -8606,238 +8749,275 @@
       <c r="I26"/>
     </row>
     <row r="27" spans="1:21">
+      <c r="B27" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="E27" s="78"/>
       <c r="I27"/>
     </row>
+    <row r="28" spans="1:21">
+      <c r="B28" s="1">
+        <v>43580</v>
+      </c>
+      <c r="I28"/>
+    </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="71" t="s">
+      <c r="A29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B29" t="s">
+        <v>589</v>
+      </c>
+      <c r="C29">
+        <f>O16/20</f>
+        <v>8673.5995000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B29" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="D29" s="71" t="s">
+      <c r="C30" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>423</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>426</v>
-      </c>
-      <c r="H29" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30">
+      <c r="G30" s="71" t="s">
+        <v>585</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>587</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
         <v>2014</v>
       </c>
-      <c r="B30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C30">
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31">
         <v>55.45</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>58.77</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F30">
-        <f>E30*D30</f>
+      <c r="F31">
+        <f>E31*D31</f>
         <v>117.54</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <f>M6*2/12</f>
         <v>8873.1666666666661</v>
       </c>
-      <c r="I30"/>
-      <c r="L30">
+      <c r="H31">
+        <f>$C$29*E31</f>
+        <v>17347.199000000001</v>
+      </c>
+      <c r="I31"/>
+      <c r="L31">
         <v>240493.78069618341</v>
       </c>
-      <c r="M30">
-        <f>L30*B13/H15</f>
+      <c r="M31">
+        <f>L31*B13/H15</f>
         <v>403223.10535887035</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31">
-        <v>2015</v>
-      </c>
-      <c r="B31" t="s">
-        <v>428</v>
-      </c>
-      <c r="C31">
-        <v>67.44</v>
-      </c>
-      <c r="D31">
-        <v>46.78</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F33" si="4">E31*D31</f>
-        <v>561.36</v>
-      </c>
-      <c r="G31">
-        <v>57458.879999999997</v>
-      </c>
-      <c r="I31"/>
     </row>
     <row r="32" spans="1:21">
       <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32">
+        <v>67.44</v>
+      </c>
+      <c r="D32">
+        <v>46.78</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F34" si="4">E32*D32</f>
+        <v>561.36</v>
+      </c>
+      <c r="G32">
+        <v>57458.879999999997</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H34" si="5">$C$29*E32</f>
+        <v>104083.194</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
         <v>2016</v>
       </c>
-      <c r="B32" t="s">
-        <v>352</v>
-      </c>
-      <c r="C32">
+      <c r="B33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33">
         <v>78.64</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>35.58</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="4"/>
         <v>71.16</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>23522</v>
       </c>
-      <c r="I32"/>
-      <c r="L32">
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>17347.199000000001</v>
+      </c>
+      <c r="I33"/>
+      <c r="L33">
         <f>F20-G24</f>
         <v>1780.2000000000698</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
+    <row r="34" spans="1:12">
+      <c r="A34">
         <v>2017</v>
       </c>
-      <c r="B33" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33">
+      <c r="B34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34">
         <v>93.45</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>20.77</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="4"/>
         <v>83.08</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>26377.200000000001</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="E34" s="74" t="s">
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>34694.398000000001</v>
+      </c>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="E35" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="F35">
+        <f>SUM(F31:F34)</f>
+        <v>833.14</v>
+      </c>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <f>F35-I35</f>
+        <v>810.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="E36" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G31:G34)</f>
+        <v>116231.24666666666</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="E37" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G37">
+        <v>173471.99</v>
+      </c>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="E38" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="F34">
-        <f>SUM(F30:F33)</f>
-        <v>833.14</v>
-      </c>
-      <c r="H34">
-        <v>23</v>
-      </c>
-      <c r="I34">
-        <f>F34-H34</f>
-        <v>810.14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="E35" s="74" t="s">
+      <c r="G38">
+        <f>G37-G36</f>
+        <v>57240.743333333332</v>
+      </c>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="E40" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="G35">
-        <f>SUM(G30:G33)</f>
-        <v>116231.24666666666</v>
-      </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="E36" s="74" t="s">
+      <c r="G40">
+        <f>J35*76.71</f>
+        <v>62145.839399999997</v>
+      </c>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="E41" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="G36">
-        <v>173471.99</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="E37" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="G37">
-        <f>G36-G35</f>
-        <v>57240.743333333332</v>
-      </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="E39" s="13" t="s">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="E42" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="G39">
-        <f>I34*76.71</f>
-        <v>62145.839399999997</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="E40" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="E41" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="G42">
-        <f>G39*10/100</f>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43">
+        <f>G40*10/100</f>
         <v>6214.5839399999995</v>
       </c>
-      <c r="I42"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="75"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="77"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="77"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="77"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="75"/>
+      <c r="I43"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="75"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="77"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="77"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="77"/>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="75"/>
@@ -8850,99 +9030,116 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="75"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0F7E9-F855-B640-B84E-6C3C77721B83}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.1640625" customWidth="1"/>
-    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1"/>
+    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16">
+    <row r="1" spans="1:25" ht="16">
       <c r="A1" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="80" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="80" t="s">
-        <v>458</v>
-      </c>
-      <c r="E1" s="80" t="s">
+      <c r="J1" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="K1" s="80" t="s">
+        <v>461</v>
+      </c>
+      <c r="L1" s="114" t="s">
+        <v>592</v>
+      </c>
+      <c r="M1" s="114" t="s">
+        <v>590</v>
+      </c>
+      <c r="N1" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="P1" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>465</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>466</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>467</v>
-      </c>
-      <c r="N1" s="80" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q1" s="80" t="s">
+      <c r="R1" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="S1" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>459</v>
+      </c>
+      <c r="V1" s="80" t="s">
+        <v>460</v>
+      </c>
+      <c r="W1" s="80" t="s">
+        <v>461</v>
+      </c>
+      <c r="X1" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="Y1" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="S1" s="80" t="s">
-        <v>464</v>
-      </c>
-      <c r="T1" s="80" t="s">
-        <v>465</v>
-      </c>
-      <c r="U1" s="80" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>43760</v>
       </c>
@@ -8956,1197 +9153,837 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G2" s="1">
+        <v>458</v>
+      </c>
+      <c r="I2" s="1">
         <v>42684</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>6.9836999999999998</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>78.8994</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>551.01</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>43616</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>1.5803199999999999</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>113.09099999999999</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>178.72</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:25">
       <c r="A3" s="1"/>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>42863</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>5.3132000000000001</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>94.053600000000003</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>499.73</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>43255</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>1.0838369999999999</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>95.890799999999999</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>103.93</v>
       </c>
-      <c r="U3" s="1">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="I4" s="1">
+        <v>42863</v>
+      </c>
+      <c r="J4">
+        <v>5.3132000000000001</v>
+      </c>
+      <c r="K4">
+        <v>94.053600000000003</v>
+      </c>
+      <c r="N4">
+        <v>499.73</v>
+      </c>
+      <c r="U4" s="1">
+        <v>42880</v>
+      </c>
+      <c r="V4">
+        <v>0.3972</v>
+      </c>
+      <c r="W4">
+        <v>93.826099999999997</v>
+      </c>
+      <c r="X4">
+        <v>37.270000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="81" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82" t="s">
+        <v>595</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="I5" s="1">
+        <v>42880</v>
+      </c>
+      <c r="J5">
+        <v>0.3972</v>
+      </c>
+      <c r="K5">
+        <v>93.826099999999997</v>
+      </c>
+      <c r="N5">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="83">
+        <v>43763</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="83">
+        <v>43763</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85">
+        <v>97369.15</v>
+      </c>
+      <c r="G6" s="85"/>
+      <c r="I6" s="1">
+        <v>42894</v>
+      </c>
+      <c r="J6">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="K6">
+        <v>95.570700000000002</v>
+      </c>
+      <c r="N6">
+        <v>485.41</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43788</v>
+      </c>
+      <c r="F7">
+        <v>84902.65</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42894</v>
+      </c>
+      <c r="J7">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="K7">
+        <v>95.570700000000002</v>
+      </c>
+      <c r="N7">
+        <v>485.41</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43872</v>
+      </c>
+      <c r="F8">
+        <v>80043.039999999994</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42922</v>
+      </c>
+      <c r="J8">
+        <v>5.2263999999999999</v>
+      </c>
+      <c r="K8">
+        <v>91.099900000000005</v>
+      </c>
+      <c r="N8">
+        <v>476.13</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="I9" s="1">
+        <v>42922</v>
+      </c>
+      <c r="J9">
+        <v>5.2263999999999999</v>
+      </c>
+      <c r="K9">
+        <v>91.099900000000005</v>
+      </c>
+      <c r="N9">
+        <v>476.13</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="I10" s="1">
+        <v>42955</v>
+      </c>
+      <c r="J10">
+        <v>5.1432000000000002</v>
+      </c>
+      <c r="K10">
+        <v>90.696399999999997</v>
+      </c>
+      <c r="N10">
+        <v>466.47</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="I11" s="1">
+        <v>42955</v>
+      </c>
+      <c r="J11">
+        <v>5.1432000000000002</v>
+      </c>
+      <c r="K11">
+        <v>90.696399999999997</v>
+      </c>
+      <c r="N11">
+        <v>466.47</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="I12" s="1">
+        <v>42985</v>
+      </c>
+      <c r="J12">
+        <v>5.1806999999999999</v>
+      </c>
+      <c r="K12">
+        <v>89.649699999999996</v>
+      </c>
+      <c r="N12">
+        <v>464.45</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="I13" s="1">
+        <v>42985</v>
+      </c>
+      <c r="J13">
+        <v>5.1806999999999999</v>
+      </c>
+      <c r="K13">
+        <v>89.649699999999996</v>
+      </c>
+      <c r="N13">
+        <v>464.45</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="I14" s="1">
+        <v>43017</v>
+      </c>
+      <c r="J14">
+        <v>4.7986000000000004</v>
+      </c>
+      <c r="K14">
+        <v>94.941299999999998</v>
+      </c>
+      <c r="N14">
+        <v>455.59</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="I15" s="1">
+        <v>43047</v>
+      </c>
+      <c r="J15">
+        <v>4.7103999999999999</v>
+      </c>
+      <c r="K15">
+        <v>98.918400000000005</v>
+      </c>
+      <c r="N15">
+        <v>465.95</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="I16" s="1">
+        <v>43077</v>
+      </c>
+      <c r="J16">
+        <v>4.7695780000000001</v>
+      </c>
+      <c r="K16">
+        <v>96.3733</v>
+      </c>
+      <c r="N16">
+        <v>459.66</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="9:27">
+      <c r="I17" s="1">
+        <v>43108</v>
+      </c>
+      <c r="J17">
+        <v>4.7379369999999996</v>
+      </c>
+      <c r="K17">
+        <v>96.738299999999995</v>
+      </c>
+      <c r="N17">
+        <v>458.34</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="9:27">
+      <c r="I18" s="1">
+        <v>43139</v>
+      </c>
+      <c r="J18">
+        <v>5.1819160000000002</v>
+      </c>
+      <c r="K18">
+        <v>85.489599999999996</v>
+      </c>
+      <c r="N18">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="9:27">
+      <c r="I19" s="1">
+        <v>43167</v>
+      </c>
+      <c r="J19">
+        <v>5.0675280000000003</v>
+      </c>
+      <c r="K19">
+        <v>86.933899999999994</v>
+      </c>
+      <c r="N19">
+        <v>440.54</v>
+      </c>
+    </row>
+    <row r="20" spans="9:27">
+      <c r="I20" s="1">
+        <v>43199</v>
+      </c>
+      <c r="J20">
+        <v>4.9944889999999997</v>
+      </c>
+      <c r="K20">
+        <v>87.466399999999993</v>
+      </c>
+      <c r="N20">
+        <v>436.85</v>
+      </c>
+      <c r="U20" s="83"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="85"/>
+    </row>
+    <row r="21" spans="9:27">
+      <c r="I21" s="1">
+        <v>43229</v>
+      </c>
+      <c r="J21">
+        <v>5.0398019999999999</v>
+      </c>
+      <c r="K21">
+        <v>96.640699999999995</v>
+      </c>
+      <c r="N21">
+        <v>487.05</v>
+      </c>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="85"/>
+    </row>
+    <row r="22" spans="9:27">
+      <c r="I22" s="1">
+        <v>43255</v>
+      </c>
+      <c r="J22">
+        <v>1.0838369999999999</v>
+      </c>
+      <c r="K22">
+        <v>95.890799999999999</v>
+      </c>
+      <c r="N22">
+        <v>103.93</v>
+      </c>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="9:27">
+      <c r="I23" s="1">
+        <v>43258</v>
+      </c>
+      <c r="J23">
+        <v>4.9699489999999997</v>
+      </c>
+      <c r="K23">
+        <v>99.699200000000005</v>
+      </c>
+      <c r="N23">
+        <v>495.5</v>
+      </c>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="9:27">
+      <c r="I24" s="1">
+        <v>43290</v>
+      </c>
+      <c r="J24">
+        <v>4.8459159999999999</v>
+      </c>
+      <c r="K24">
+        <v>100.9551</v>
+      </c>
+      <c r="N24">
+        <v>489.22</v>
+      </c>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="9:27">
+      <c r="I25" s="1">
+        <v>43320</v>
+      </c>
+      <c r="J25">
+        <v>4.8494739999999998</v>
+      </c>
+      <c r="K25">
+        <v>100.08920000000001</v>
+      </c>
+      <c r="N25">
+        <v>485.38</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="9:27">
+      <c r="I26" s="1">
+        <v>43350</v>
+      </c>
+      <c r="J26">
+        <v>4.7271140000000003</v>
+      </c>
+      <c r="K26">
+        <v>99.849500000000006</v>
+      </c>
+      <c r="N26">
+        <v>472</v>
+      </c>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="9:27">
+      <c r="I27" s="1">
+        <v>43382</v>
+      </c>
+      <c r="J27">
+        <v>4.5449970000000004</v>
+      </c>
+      <c r="K27">
+        <v>102.3785</v>
+      </c>
+      <c r="N27">
+        <v>465.31</v>
+      </c>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="9:27">
+      <c r="I28" s="1">
+        <v>43413</v>
+      </c>
+      <c r="J28">
+        <v>4.918793</v>
+      </c>
+      <c r="K28">
+        <v>94.8078</v>
+      </c>
+      <c r="N28">
+        <v>466.34</v>
+      </c>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="9:27">
+      <c r="I29" s="1">
+        <v>43441</v>
+      </c>
+      <c r="J29">
+        <v>5.4935640000000001</v>
+      </c>
+      <c r="K29">
+        <v>89.877899999999997</v>
+      </c>
+      <c r="N29">
+        <v>493.75</v>
+      </c>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="9:27">
+      <c r="I30" s="1">
+        <v>43474</v>
+      </c>
+      <c r="J30">
+        <v>5.4914100000000001</v>
+      </c>
+      <c r="K30">
+        <v>89.181100000000001</v>
+      </c>
+      <c r="N30">
+        <v>489.73</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="9:27">
+      <c r="I31" s="1">
+        <v>43504</v>
+      </c>
+      <c r="J31">
+        <v>5.2319240000000002</v>
+      </c>
+      <c r="K31">
+        <v>91.788399999999996</v>
+      </c>
+      <c r="N31">
+        <v>480.23</v>
+      </c>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="9:27">
+      <c r="I32" s="1">
+        <v>43532</v>
+      </c>
+      <c r="J32">
+        <v>5.0892059999999999</v>
+      </c>
+      <c r="K32">
+        <v>95.289900000000003</v>
+      </c>
+      <c r="N32">
+        <v>484.95</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="9:21">
+      <c r="I33" s="1">
+        <v>43563</v>
+      </c>
+      <c r="J33">
+        <v>4.9730179999999997</v>
+      </c>
+      <c r="K33">
+        <v>101.4957</v>
+      </c>
+      <c r="N33">
+        <v>504.74</v>
+      </c>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="9:21">
+      <c r="I34" s="1">
+        <v>43594</v>
+      </c>
+      <c r="J34">
+        <v>4.7908530000000003</v>
+      </c>
+      <c r="K34">
+        <v>111.1326</v>
+      </c>
+      <c r="M34">
+        <f>28510.31+13051.12</f>
+        <v>41561.43</v>
+      </c>
+      <c r="N34">
+        <v>532.41999999999996</v>
+      </c>
+      <c r="O34" s="1">
+        <v>43783</v>
+      </c>
+      <c r="Q34">
+        <v>122.18</v>
+      </c>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="9:21">
+      <c r="I35" s="1">
+        <v>43616</v>
+      </c>
+      <c r="J35">
+        <v>1.5803199999999999</v>
+      </c>
+      <c r="K35">
+        <v>113.09099999999999</v>
+      </c>
+      <c r="L35">
+        <v>77.64</v>
+      </c>
+      <c r="M35">
+        <f>J35*K35*L35</f>
+        <v>13875.818402476798</v>
+      </c>
+      <c r="N35">
+        <v>178.72</v>
+      </c>
+      <c r="O35" s="1">
         <v>43760</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="G4" s="1">
-        <v>42863</v>
-      </c>
-      <c r="H4">
-        <v>5.3132000000000001</v>
-      </c>
-      <c r="I4">
-        <v>94.053600000000003</v>
-      </c>
-      <c r="J4">
-        <v>499.73</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>42880</v>
-      </c>
-      <c r="R4">
-        <v>0.3972</v>
-      </c>
-      <c r="S4">
-        <v>93.826099999999997</v>
-      </c>
-      <c r="T4">
-        <v>37.270000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="G5" s="1">
-        <v>42880</v>
-      </c>
-      <c r="H5">
-        <v>0.3972</v>
-      </c>
-      <c r="I5">
-        <v>93.826099999999997</v>
-      </c>
-      <c r="J5">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="G6" s="1">
-        <v>42894</v>
-      </c>
-      <c r="H6">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="I6">
-        <v>95.570700000000002</v>
-      </c>
-      <c r="J6">
-        <v>485.41</v>
-      </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="G7" s="1">
-        <v>42894</v>
-      </c>
-      <c r="H7">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="I7">
-        <v>95.570700000000002</v>
-      </c>
-      <c r="J7">
-        <v>485.41</v>
-      </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="G8" s="1">
-        <v>42922</v>
-      </c>
-      <c r="H8">
-        <v>5.2263999999999999</v>
-      </c>
-      <c r="I8">
-        <v>91.099900000000005</v>
-      </c>
-      <c r="J8">
-        <v>476.13</v>
-      </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="G9" s="1">
-        <v>42922</v>
-      </c>
-      <c r="H9">
-        <v>5.2263999999999999</v>
-      </c>
-      <c r="I9">
-        <v>91.099900000000005</v>
-      </c>
-      <c r="J9">
-        <v>476.13</v>
-      </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="G10" s="1">
-        <v>42955</v>
-      </c>
-      <c r="H10">
-        <v>5.1432000000000002</v>
-      </c>
-      <c r="I10">
-        <v>90.696399999999997</v>
-      </c>
-      <c r="J10">
-        <v>466.47</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="G11" s="1">
-        <v>42955</v>
-      </c>
-      <c r="H11">
-        <v>5.1432000000000002</v>
-      </c>
-      <c r="I11">
-        <v>90.696399999999997</v>
-      </c>
-      <c r="J11">
-        <v>466.47</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="G12" s="1">
-        <v>42985</v>
-      </c>
-      <c r="H12">
-        <v>5.1806999999999999</v>
-      </c>
-      <c r="I12">
-        <v>89.649699999999996</v>
-      </c>
-      <c r="J12">
-        <v>464.45</v>
-      </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="G13" s="1">
-        <v>42985</v>
-      </c>
-      <c r="H13">
-        <v>5.1806999999999999</v>
-      </c>
-      <c r="I13">
-        <v>89.649699999999996</v>
-      </c>
-      <c r="J13">
-        <v>464.45</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="G14" s="1">
-        <v>43017</v>
-      </c>
-      <c r="H14">
-        <v>4.7986000000000004</v>
-      </c>
-      <c r="I14">
-        <v>94.941299999999998</v>
-      </c>
-      <c r="J14">
-        <v>455.59</v>
-      </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="G15" s="1">
-        <v>43047</v>
-      </c>
-      <c r="H15">
-        <v>4.7103999999999999</v>
-      </c>
-      <c r="I15">
-        <v>98.918400000000005</v>
-      </c>
-      <c r="J15">
-        <v>465.95</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="G16" s="1">
-        <v>43077</v>
-      </c>
-      <c r="H16">
-        <v>4.7695780000000001</v>
-      </c>
-      <c r="I16">
-        <v>96.3733</v>
-      </c>
-      <c r="J16">
-        <v>459.66</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="7:23">
-      <c r="G17" s="1">
-        <v>43108</v>
-      </c>
-      <c r="H17">
-        <v>4.7379369999999996</v>
-      </c>
-      <c r="I17">
-        <v>96.738299999999995</v>
-      </c>
-      <c r="J17">
-        <v>458.34</v>
-      </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="7:23">
-      <c r="G18" s="1">
-        <v>43139</v>
-      </c>
-      <c r="H18">
-        <v>5.1819160000000002</v>
-      </c>
-      <c r="I18">
-        <v>85.489599999999996</v>
-      </c>
-      <c r="J18">
-        <v>443</v>
-      </c>
-      <c r="Q18" s="81" t="s">
-        <v>470</v>
-      </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-    </row>
-    <row r="19" spans="7:23">
-      <c r="G19" s="1">
-        <v>43167</v>
-      </c>
-      <c r="H19">
-        <v>5.0675280000000003</v>
-      </c>
-      <c r="I19">
-        <v>86.933899999999994</v>
-      </c>
-      <c r="J19">
-        <v>440.54</v>
-      </c>
-      <c r="Q19" s="83">
-        <v>43763</v>
-      </c>
-      <c r="R19" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="S19" s="84" t="s">
-        <v>469</v>
-      </c>
-      <c r="T19" s="83">
-        <v>43763</v>
-      </c>
-      <c r="U19" s="84"/>
-      <c r="V19" s="85">
-        <v>97369.15</v>
-      </c>
-      <c r="W19" s="85">
-        <v>109095.8</v>
-      </c>
-    </row>
-    <row r="20" spans="7:23">
-      <c r="G20" s="1">
-        <v>43199</v>
-      </c>
-      <c r="H20">
-        <v>4.9944889999999997</v>
-      </c>
-      <c r="I20">
-        <v>87.466399999999993</v>
-      </c>
-      <c r="J20">
-        <v>436.85</v>
-      </c>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="85"/>
-    </row>
-    <row r="21" spans="7:23">
-      <c r="G21" s="1">
-        <v>43229</v>
-      </c>
-      <c r="H21">
-        <v>5.0398019999999999</v>
-      </c>
-      <c r="I21">
-        <v>96.640699999999995</v>
-      </c>
-      <c r="J21">
-        <v>487.05</v>
-      </c>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85"/>
-    </row>
-    <row r="22" spans="7:23">
-      <c r="G22" s="1">
-        <v>43255</v>
-      </c>
-      <c r="H22">
-        <v>1.0838369999999999</v>
-      </c>
-      <c r="I22">
-        <v>95.890799999999999</v>
-      </c>
-      <c r="J22">
-        <v>103.93</v>
-      </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="7:23">
-      <c r="G23" s="1">
-        <v>43258</v>
-      </c>
-      <c r="H23">
-        <v>4.9699489999999997</v>
-      </c>
-      <c r="I23">
-        <v>99.699200000000005</v>
-      </c>
-      <c r="J23">
-        <v>495.5</v>
-      </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="7:23">
-      <c r="G24" s="1">
-        <v>43290</v>
-      </c>
-      <c r="H24">
-        <v>4.8459159999999999</v>
-      </c>
-      <c r="I24">
-        <v>100.9551</v>
-      </c>
-      <c r="J24">
-        <v>489.22</v>
-      </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="7:23">
-      <c r="G25" s="1">
-        <v>43320</v>
-      </c>
-      <c r="H25">
-        <v>4.8494739999999998</v>
-      </c>
-      <c r="I25">
-        <v>100.08920000000001</v>
-      </c>
-      <c r="J25">
-        <v>485.38</v>
-      </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="7:23">
-      <c r="G26" s="1">
-        <v>43350</v>
-      </c>
-      <c r="H26">
-        <v>4.7271140000000003</v>
-      </c>
-      <c r="I26">
-        <v>99.849500000000006</v>
-      </c>
-      <c r="J26">
-        <v>472</v>
-      </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="7:23">
-      <c r="G27" s="1">
-        <v>43382</v>
-      </c>
-      <c r="H27">
-        <v>4.5449970000000004</v>
-      </c>
-      <c r="I27">
-        <v>102.3785</v>
-      </c>
-      <c r="J27">
-        <v>465.31</v>
-      </c>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="7:23">
-      <c r="G28" s="1">
-        <v>43413</v>
-      </c>
-      <c r="H28">
-        <v>4.918793</v>
-      </c>
-      <c r="I28">
-        <v>94.8078</v>
-      </c>
-      <c r="J28">
-        <v>466.34</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="7:23">
-      <c r="G29" s="1">
-        <v>43441</v>
-      </c>
-      <c r="H29">
-        <v>5.4935640000000001</v>
-      </c>
-      <c r="I29">
-        <v>89.877899999999997</v>
-      </c>
-      <c r="J29">
-        <v>493.75</v>
-      </c>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="7:23">
-      <c r="G30" s="1">
-        <v>43474</v>
-      </c>
-      <c r="H30">
-        <v>5.4914100000000001</v>
-      </c>
-      <c r="I30">
-        <v>89.181100000000001</v>
-      </c>
-      <c r="J30">
-        <v>489.73</v>
-      </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="7:23">
-      <c r="G31" s="1">
-        <v>43504</v>
-      </c>
-      <c r="H31">
-        <v>5.2319240000000002</v>
-      </c>
-      <c r="I31">
-        <v>91.788399999999996</v>
-      </c>
-      <c r="J31">
-        <v>480.23</v>
-      </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="7:23">
-      <c r="G32" s="1">
-        <v>43532</v>
-      </c>
-      <c r="H32">
-        <v>5.0892059999999999</v>
-      </c>
-      <c r="I32">
-        <v>95.289900000000003</v>
-      </c>
-      <c r="J32">
-        <v>484.95</v>
-      </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="7:17">
-      <c r="G33" s="1">
-        <v>43563</v>
-      </c>
-      <c r="H33">
-        <v>4.9730179999999997</v>
-      </c>
-      <c r="I33">
-        <v>101.4957</v>
-      </c>
-      <c r="J33">
-        <v>504.74</v>
-      </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="7:17">
-      <c r="G34" s="1">
-        <v>43594</v>
-      </c>
-      <c r="H34">
-        <v>4.7908530000000003</v>
-      </c>
-      <c r="I34">
-        <v>111.1326</v>
-      </c>
-      <c r="J34">
-        <v>532.41999999999996</v>
-      </c>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="7:17">
-      <c r="G35" s="1">
-        <v>43616</v>
-      </c>
-      <c r="H35">
-        <v>1.5803199999999999</v>
-      </c>
-      <c r="I35">
-        <v>113.09099999999999</v>
-      </c>
-      <c r="J35">
-        <v>178.72</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="Q35">
+        <v>120.16</v>
+      </c>
+      <c r="S35" t="s">
+        <v>591</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="9:21">
+      <c r="I36" s="1">
+        <v>43623</v>
+      </c>
+      <c r="J36">
+        <v>4.7249610000000004</v>
+      </c>
+      <c r="K36">
+        <v>113.148</v>
+      </c>
+      <c r="M36">
+        <f>28510.31 + 13051.12</f>
+        <v>41561.43</v>
+      </c>
+      <c r="N36">
+        <v>534.62</v>
+      </c>
+      <c r="O36" s="1">
         <v>43760</v>
       </c>
-      <c r="M35">
+      <c r="Q36">
         <v>120.16</v>
       </c>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="7:17">
-      <c r="G36" s="1">
-        <v>43623</v>
-      </c>
-      <c r="H36">
-        <v>4.7249610000000004</v>
-      </c>
-      <c r="I36">
-        <v>113.148</v>
-      </c>
-      <c r="J36">
-        <v>534.62</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="9:21">
+      <c r="I37" s="1">
+        <v>43654</v>
+      </c>
+      <c r="J37">
+        <v>4.2873520000000003</v>
+      </c>
+      <c r="K37">
+        <v>123.4538</v>
+      </c>
+      <c r="M37">
+        <f>28510.31 + 13051.12</f>
+        <v>41561.43</v>
+      </c>
+      <c r="N37">
+        <v>529.29</v>
+      </c>
+      <c r="O37" s="1">
         <v>43760</v>
       </c>
-      <c r="M36">
+      <c r="Q37">
         <v>120.16</v>
       </c>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="7:17">
-      <c r="G37" s="1">
-        <v>43654</v>
-      </c>
-      <c r="H37">
-        <v>4.2873520000000003</v>
-      </c>
-      <c r="I37">
-        <v>123.4538</v>
-      </c>
-      <c r="J37">
-        <v>529.29</v>
-      </c>
-      <c r="K37" s="1">
-        <v>43760</v>
-      </c>
-      <c r="M37">
-        <v>120.16</v>
-      </c>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="7:17">
-      <c r="G38" s="1">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="9:21">
+      <c r="I38" s="1">
         <v>43685</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>5.0156929999999997</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>108.04089999999999</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <v>541.9</v>
       </c>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="7:17">
-      <c r="G39" s="1">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="9:21">
+      <c r="I39" s="1">
         <v>43717</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>4.749536</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>110.9982</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>527.19000000000005</v>
       </c>
-      <c r="K39" s="1">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="9:21">
+      <c r="I40" s="1">
+        <v>43747</v>
+      </c>
+      <c r="J40">
+        <v>5.1105739999999997</v>
+      </c>
+      <c r="K40">
+        <v>105.3952</v>
+      </c>
+      <c r="N40">
+        <f>J40*K40</f>
+        <v>538.62996884480003</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="9:21">
+      <c r="I41" s="1">
+        <v>43777</v>
+      </c>
+      <c r="J41">
+        <v>4.2716479999999999</v>
+      </c>
+      <c r="K41">
+        <v>122.9853</v>
+      </c>
+      <c r="M41">
+        <f>28510.31 + 13051.12</f>
+        <v>41561.43</v>
+      </c>
+      <c r="N41">
+        <f>J41*K41</f>
+        <v>525.34991077439997</v>
+      </c>
+      <c r="O41" s="1">
         <v>43783</v>
       </c>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="7:17">
-      <c r="G40" s="1">
-        <v>43747</v>
-      </c>
-      <c r="H40">
-        <v>5.1105739999999997</v>
-      </c>
-      <c r="I40">
-        <v>105.3952</v>
-      </c>
-      <c r="J40">
-        <f>H40*I40</f>
-        <v>538.62996884480003</v>
-      </c>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="7:17">
-      <c r="G41" s="1">
-        <v>43777</v>
-      </c>
-      <c r="H41">
-        <v>4.2716479999999999</v>
-      </c>
-      <c r="I41">
-        <v>122.9853</v>
-      </c>
-      <c r="J41">
-        <f>H41*I41</f>
-        <v>525.34991077439997</v>
-      </c>
-      <c r="K41" s="1">
-        <v>43783</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="7:17">
-      <c r="G42" s="1">
+      <c r="Q41">
+        <v>122.18</v>
+      </c>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="9:21">
+      <c r="I42" s="1">
         <v>43839</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>4.2163120000000003</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>122.9297</v>
       </c>
-      <c r="J42">
-        <f>H42*I42</f>
+      <c r="M42">
+        <f>28510.31 + 13044.12</f>
+        <v>41554.43</v>
+      </c>
+      <c r="N42">
+        <f>J42*K42</f>
         <v>518.3099692664</v>
       </c>
-      <c r="K42" s="1">
+      <c r="O42" s="1">
         <v>43867</v>
       </c>
-      <c r="L42">
+      <c r="P42">
         <v>15</v>
       </c>
-      <c r="M42">
-        <v>124.6</v>
-      </c>
-      <c r="N42">
-        <f>H42*M42-L42</f>
-        <v>510.35247519999996</v>
-      </c>
-    </row>
-    <row r="43" spans="7:17">
-      <c r="G43" s="1">
+      <c r="Q42">
+        <v>124.62</v>
+      </c>
+      <c r="R42">
+        <f>J42*Q42-P42</f>
+        <v>510.43680144000007</v>
+      </c>
+    </row>
+    <row r="43" spans="9:21">
+      <c r="I43" s="1">
         <v>43808</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>4.3324699999999998</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>121.9119</v>
       </c>
-      <c r="J43">
-        <f>H43*I43</f>
+      <c r="M43">
+        <f>28510.31 + 13051.12</f>
+        <v>41561.43</v>
+      </c>
+      <c r="N43">
+        <f>J43*K43</f>
         <v>528.17964939299998</v>
       </c>
-      <c r="K43" s="1">
+      <c r="O43" s="1">
         <v>43867</v>
       </c>
-      <c r="M43">
-        <v>124.6</v>
-      </c>
-      <c r="N43">
-        <f>H43*M43-L43</f>
-        <v>539.82576199999994</v>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>124.62</v>
+      </c>
+      <c r="R43">
+        <f>J43*Q43-P43</f>
+        <v>539.9124114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:L39" xr:uid="{7AFC6836-E8DA-2F4C-A30A-48CE52DE2518}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:M39">
-    <sortCondition ref="G2:G39"/>
+  <autoFilter ref="I1:P43" xr:uid="{7AFC6836-E8DA-2F4C-A30A-48CE52DE2518}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:Q39">
+    <sortCondition ref="I2:I39"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6551FCA-F565-3141-9575-A9B69266907A}">
-  <dimension ref="A1:P38"/>
-  <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2">
-        <v>18000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="B3">
-        <v>40000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="6">
-        <v>43622</v>
-      </c>
-      <c r="I3">
-        <v>4000</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>410</v>
-      </c>
-      <c r="O3" t="s">
-        <v>413</v>
-      </c>
-      <c r="P3">
-        <f>SUM(I3:I560)</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4">
-        <v>-8200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43623</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>414</v>
-      </c>
-      <c r="P4">
-        <f>SUM(K3:K560)</f>
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="73">
-        <v>43435</v>
-      </c>
-      <c r="B5">
-        <v>-100000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43624</v>
-      </c>
-      <c r="O5" t="s">
-        <v>415</v>
-      </c>
-      <c r="P5">
-        <f>P3-P4</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6">
-        <v>26000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7">
-        <v>14000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H7" s="6">
-        <v>43626</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8">
-        <v>20000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" t="s">
-        <v>407</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43627</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="H9" s="6">
-        <v>43628</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="H10" s="6">
-        <v>43629</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="H11" s="6">
-        <v>43630</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="H12" s="6">
-        <v>43631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13" s="6">
-        <v>43632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14" s="6">
-        <v>43633</v>
-      </c>
-      <c r="I14">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15" s="6">
-        <v>43634</v>
-      </c>
-      <c r="I15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16" s="6">
-        <v>43635</v>
-      </c>
-      <c r="I16">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="6">
-        <v>43636</v>
-      </c>
-      <c r="I17">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="6">
-        <v>43637</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="6">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="6">
-        <v>43639</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="6">
-        <v>43640</v>
-      </c>
-      <c r="I21">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="6">
-        <v>43641</v>
-      </c>
-      <c r="I22">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="6">
-        <v>43642</v>
-      </c>
-      <c r="I23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" s="6">
-        <v>43643</v>
-      </c>
-      <c r="I24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11">
-      <c r="H25" s="6">
-        <v>43644</v>
-      </c>
-      <c r="I25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="6">
-        <v>43645</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="6">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="6">
-        <v>43647</v>
-      </c>
-      <c r="J28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="6">
-        <v>43648</v>
-      </c>
-      <c r="J29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="6">
-        <v>43649</v>
-      </c>
-      <c r="I30">
-        <v>800</v>
-      </c>
-      <c r="K30">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="6">
-        <v>43650</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="6">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="6">
-        <v>43652</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="6">
-        <v>43653</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="6">
-        <v>43654</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="6">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="H37" s="6">
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="6">
-        <v>43657</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10359,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11441,7 +11278,7 @@
         <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -11455,13 +11292,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
         <v>240</v>
-      </c>
-      <c r="E70" t="s">
-        <v>240</v>
-      </c>
-      <c r="F70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11472,16 +11309,16 @@
         <v>-10000</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11501,7 +11338,7 @@
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11521,7 +11358,7 @@
         <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11541,7 +11378,7 @@
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11561,7 +11398,7 @@
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11689,7 +11526,7 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1">
@@ -11806,7 +11643,7 @@
         <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1">
@@ -11826,7 +11663,7 @@
         <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11874,10 +11711,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -11921,6 +11758,437 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6551FCA-F565-3141-9575-A9B69266907A}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2">
+        <v>18000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43622</v>
+      </c>
+      <c r="I3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
+        <v>4000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>408</v>
+      </c>
+      <c r="O3" t="s">
+        <v>411</v>
+      </c>
+      <c r="P3">
+        <f>SUM(I3:I560)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4">
+        <v>-8200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="6">
+        <v>43623</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="O4" t="s">
+        <v>412</v>
+      </c>
+      <c r="P4">
+        <f>SUM(K3:K560)</f>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="73">
+        <v>43435</v>
+      </c>
+      <c r="B5">
+        <v>-100000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43624</v>
+      </c>
+      <c r="O5" t="s">
+        <v>413</v>
+      </c>
+      <c r="P5">
+        <f>P3-P4</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6">
+        <v>26000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7">
+        <v>14000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43626</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8">
+        <v>20000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43627</v>
+      </c>
+      <c r="I8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="H9" s="6">
+        <v>43628</v>
+      </c>
+      <c r="I9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="H10" s="6">
+        <v>43629</v>
+      </c>
+      <c r="I10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="H11" s="6">
+        <v>43630</v>
+      </c>
+      <c r="I11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="H12" s="6">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13" s="6">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14" s="6">
+        <v>43633</v>
+      </c>
+      <c r="I14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15" s="6">
+        <v>43634</v>
+      </c>
+      <c r="I15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16" s="6">
+        <v>43635</v>
+      </c>
+      <c r="I16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="6">
+        <v>43636</v>
+      </c>
+      <c r="I17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="6">
+        <v>43637</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="6">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="6">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="6">
+        <v>43640</v>
+      </c>
+      <c r="I21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="6">
+        <v>43641</v>
+      </c>
+      <c r="I22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="6">
+        <v>43642</v>
+      </c>
+      <c r="I23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" s="6">
+        <v>43643</v>
+      </c>
+      <c r="I24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" s="6">
+        <v>43644</v>
+      </c>
+      <c r="I25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="6">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="6">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="6">
+        <v>43647</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="6">
+        <v>43648</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="6">
+        <v>43649</v>
+      </c>
+      <c r="I30">
+        <v>800</v>
+      </c>
+      <c r="K30">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" s="6">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="6">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="6">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="6">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="6">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="6">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="6">
+        <v>43657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84395FC0-4E4E-FE4E-9D32-79BF7FC1E3C3}">
   <dimension ref="A1:S12"/>
   <sheetViews>
@@ -11943,61 +12211,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="110" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="M1" s="110" t="s">
-        <v>514</v>
-      </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
+      <c r="A1" s="113" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="M1" s="113" t="s">
+        <v>511</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P2" s="93" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q2" s="93" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R2" s="93" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -12040,54 +12308,54 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E6" t="s">
         <v>172</v>
       </c>
       <c r="F6" s="93" t="s">
+        <v>504</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="N6" t="s">
         <v>507</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>508</v>
-      </c>
-      <c r="N6" t="s">
-        <v>510</v>
-      </c>
       <c r="O6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q6" t="s">
         <v>172</v>
       </c>
       <c r="R6" s="93" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S6" s="93" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -12134,25 +12402,25 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" t="s">
         <v>509</v>
-      </c>
-      <c r="B10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" t="s">
-        <v>512</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="M10" t="s">
+        <v>506</v>
+      </c>
+      <c r="N10" t="s">
+        <v>508</v>
+      </c>
+      <c r="O10" t="s">
         <v>509</v>
-      </c>
-      <c r="N10" t="s">
-        <v>511</v>
-      </c>
-      <c r="O10" t="s">
-        <v>512</v>
       </c>
       <c r="P10">
         <v>50</v>
@@ -12160,41 +12428,41 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E11" t="s">
         <v>172</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H11" s="93"/>
       <c r="N11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="s">
         <v>172</v>
       </c>
       <c r="R11" s="93" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S11" s="93" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -12781,7 +13049,7 @@
         <v>42625</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1">
         <v>100000</v>
@@ -12790,7 +13058,7 @@
         <v>42627</v>
       </c>
       <c r="L1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M1">
         <v>-610000</v>
@@ -12801,7 +13069,7 @@
         <v>42675</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>-29500</v>
@@ -12810,7 +13078,7 @@
         <v>42625</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2">
         <v>100000</v>
@@ -12819,7 +13087,7 @@
         <v>42642</v>
       </c>
       <c r="L2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M2">
         <v>-610000</v>
@@ -12827,7 +13095,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3">
         <v>-12500</v>
@@ -12836,7 +13104,7 @@
         <v>42660</v>
       </c>
       <c r="G3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3">
         <v>200000</v>
@@ -12851,7 +13119,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4">
         <v>-12000</v>
@@ -12866,7 +13134,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5">
         <v>-18000</v>
@@ -12875,7 +13143,7 @@
         <v>42614</v>
       </c>
       <c r="L5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M5">
         <v>-1000</v>
@@ -12883,7 +13151,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6">
         <v>-16500</v>
@@ -12892,7 +13160,7 @@
         <v>42623</v>
       </c>
       <c r="L6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M6">
         <v>-11500</v>
@@ -12900,7 +13168,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7">
         <v>-27000</v>
@@ -12909,7 +13177,7 @@
         <v>42689</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M7">
         <v>-18590</v>
@@ -12917,7 +13185,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8">
         <v>-40000</v>
@@ -12926,7 +13194,7 @@
         <v>42689</v>
       </c>
       <c r="L8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M8">
         <v>-37180</v>
@@ -12934,7 +13202,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9">
         <v>-4000</v>
@@ -12943,7 +13211,7 @@
         <v>42689</v>
       </c>
       <c r="L9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M9">
         <v>-189618</v>
@@ -12951,31 +13219,31 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10">
         <f>-2*6900</f>
         <v>-13800</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K10" s="1">
         <v>42689</v>
       </c>
       <c r="L10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M10">
         <v>-5000</v>
       </c>
       <c r="N10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11">
         <v>-470000</v>
@@ -12984,7 +13252,7 @@
         <v>42675</v>
       </c>
       <c r="L11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M11">
         <v>-15800</v>
@@ -12992,7 +13260,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12">
         <v>-62000</v>
@@ -13001,7 +13269,7 @@
         <v>42675</v>
       </c>
       <c r="L12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M12">
         <v>-2000</v>
@@ -13009,13 +13277,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C13">
         <v>-2000</v>
       </c>
       <c r="L13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M13">
         <v>-12500</v>
@@ -13023,7 +13291,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>-35000</v>
@@ -13032,7 +13300,7 @@
         <v>42607</v>
       </c>
       <c r="L14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M14">
         <v>-4500</v>
@@ -13056,7 +13324,7 @@
         <v>-742300</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H16" s="68">
         <v>-4900000</v>
@@ -13064,46 +13332,46 @@
     </row>
     <row r="18" spans="7:14">
       <c r="L18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M18">
         <v>-30000</v>
       </c>
       <c r="N18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="7:14">
       <c r="L19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M19">
         <v>-3500</v>
       </c>
       <c r="N19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="7:14">
       <c r="L20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M20">
         <v>-5600</v>
       </c>
       <c r="N20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="7:14">
       <c r="L21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M21">
         <v>-25000</v>
       </c>
       <c r="N21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -13115,75 +13383,75 @@
         <v>-7159988</v>
       </c>
       <c r="L22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M22">
         <v>-15000</v>
       </c>
       <c r="N22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="7:14">
       <c r="G23" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H23" s="68">
         <f>H22+M28</f>
         <v>-7291462</v>
       </c>
       <c r="L23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M23">
         <v>-4000</v>
       </c>
       <c r="N23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="7:14">
       <c r="L24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M24">
         <v>-23000</v>
       </c>
       <c r="N24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="7:14">
       <c r="L25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M25">
         <v>-8874</v>
       </c>
       <c r="N25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="7:14">
       <c r="L26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M26">
         <v>-11500</v>
       </c>
       <c r="N26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="7:14">
       <c r="L27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M27">
         <v>-5000</v>
       </c>
       <c r="N27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -13197,7 +13465,7 @@
     </row>
     <row r="30" spans="7:14">
       <c r="L30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M30">
         <v>-10000</v>
@@ -13221,10 +13489,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13277,50 +13545,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="32">
       <c r="A1" s="94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M1" s="16"/>
       <c r="O1" s="86" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="69">
         <v>672431779</v>
@@ -13332,7 +13600,7 @@
       <c r="H2" s="69"/>
       <c r="I2" s="16"/>
       <c r="J2" s="87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K2" s="69">
         <v>45644</v>
@@ -13342,13 +13610,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" s="69">
         <v>672441165</v>
@@ -13360,7 +13628,7 @@
       <c r="H3" s="69"/>
       <c r="I3" s="16"/>
       <c r="J3" s="88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K3" s="69"/>
       <c r="M3" s="16"/>
@@ -13368,13 +13636,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="69">
         <v>672445825</v>
@@ -13386,7 +13654,7 @@
       <c r="H4" s="69"/>
       <c r="I4" s="16"/>
       <c r="J4" s="89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" s="69">
         <v>970</v>
@@ -13396,13 +13664,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" s="69">
         <v>672445826</v>
@@ -13414,7 +13682,7 @@
       <c r="H5" s="69"/>
       <c r="I5" s="16"/>
       <c r="J5" s="89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K5" s="69">
         <v>39072</v>
@@ -13424,14 +13692,14 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="69">
         <v>2007</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -13443,7 +13711,7 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K6" s="69">
         <v>5602</v>
@@ -13453,11 +13721,11 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -13467,7 +13735,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="16"/>
       <c r="J7" s="87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K7" s="69">
         <v>460000</v>
@@ -13477,19 +13745,19 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1">
         <v>42883</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G8" s="16">
         <v>5000</v>
@@ -13499,7 +13767,7 @@
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K8" s="69"/>
       <c r="M8" s="16"/>
@@ -13510,19 +13778,19 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1">
         <v>43054</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="16">
         <v>10000</v>
@@ -13532,7 +13800,7 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K9" s="69">
         <v>25000</v>
@@ -13544,19 +13812,19 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1">
         <v>43054</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="16">
         <v>10000</v>
@@ -13566,7 +13834,7 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K10" s="69">
         <v>50000</v>
@@ -13578,19 +13846,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="1">
         <v>43078</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="16">
         <v>15000</v>
@@ -13600,7 +13868,7 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K11" s="69">
         <v>25000</v>
@@ -13612,19 +13880,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" s="1">
         <v>43166</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="16">
         <v>10000</v>
@@ -13634,7 +13902,7 @@
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K12" s="69">
         <v>10000</v>
@@ -13645,19 +13913,19 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" s="1">
         <v>43305</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="16">
         <v>5000</v>
@@ -13667,7 +13935,7 @@
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="89" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K13" s="69">
         <v>35000</v>
@@ -13678,19 +13946,19 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C14" s="1">
         <v>43305</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="16">
         <v>10000</v>
@@ -13700,7 +13968,7 @@
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="89" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K14" s="69">
         <v>20000</v>
@@ -13708,19 +13976,19 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C15" s="1">
         <v>43311</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G15" s="16">
         <v>10000</v>
@@ -13730,7 +13998,7 @@
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="89" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K15" s="69">
         <v>175000</v>
@@ -13738,19 +14006,19 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1">
         <v>43311</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" s="16">
         <v>10000</v>
@@ -13759,25 +14027,25 @@
         <v>153.1217</v>
       </c>
       <c r="J16" s="88" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K16" s="69"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C17" s="1">
         <v>43313</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="16">
         <v>10000</v>
@@ -13786,7 +14054,7 @@
         <v>749.55780000000004</v>
       </c>
       <c r="J17" s="89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K17" s="69">
         <v>90000</v>
@@ -13794,19 +14062,19 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="1">
         <v>43315</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="16">
         <v>15000</v>
@@ -13815,7 +14083,7 @@
         <v>153.1217</v>
       </c>
       <c r="J18" s="89" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K18" s="69">
         <v>30000</v>
@@ -13827,19 +14095,19 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C19" s="1">
         <v>43318</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" s="16">
         <v>15000</v>
@@ -13848,7 +14116,7 @@
         <v>53.654299999999999</v>
       </c>
       <c r="J19" s="87" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K19" s="69">
         <v>42593.1</v>
@@ -13859,20 +14127,20 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C20" s="1">
         <v>43434</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="16">
         <v>20000</v>
@@ -13881,7 +14149,7 @@
         <v>471.88510000000002</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K20" s="69"/>
       <c r="O20" s="16">
@@ -13890,23 +14158,23 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1">
         <v>43595</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G21" s="11">
         <v>19157.099999999999</v>
       </c>
       <c r="H21" s="69"/>
       <c r="J21" s="89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K21" s="69">
         <v>19157.099999999999</v>
@@ -13915,23 +14183,23 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C22" s="1">
         <v>43321</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G22" s="11">
         <v>23436</v>
       </c>
       <c r="H22" s="69"/>
       <c r="J22" s="89" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K22" s="69">
         <v>23436</v>
@@ -13940,19 +14208,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" s="1">
         <v>43866</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G23" s="16">
         <v>20000</v>
@@ -13961,7 +14229,7 @@
         <v>30.508600000000001</v>
       </c>
       <c r="J23" s="87" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K23" s="69">
         <v>548237.1</v>
@@ -13969,16 +14237,16 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G24" s="16">
         <v>75000</v>
@@ -13989,16 +14257,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G25" s="16">
         <v>100000</v>
@@ -14009,19 +14277,19 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="1">
         <v>43973</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G26" s="16">
         <v>50000</v>
@@ -14078,30 +14346,30 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>237</v>
@@ -14110,11 +14378,11 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="69">
         <v>672431779</v>
@@ -14126,7 +14394,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K2">
         <f>SUMIF($A$2:$A$100,J2,$G$2:$G$100)</f>
@@ -14136,11 +14404,11 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" s="69">
         <v>672441165</v>
@@ -14152,7 +14420,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K3">
         <f>SUMIF($A$2:$A$100,J3,$G$2:$G$100)</f>
@@ -14162,11 +14430,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="69">
         <v>672445825</v>
@@ -14183,11 +14451,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" s="69">
         <v>672445826</v>
@@ -14204,7 +14472,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="16"/>
       <c r="D6" s="16" t="s">
@@ -14223,11 +14491,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -14242,16 +14510,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G8" s="16">
         <v>10000</v>
@@ -14264,16 +14532,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="16">
         <v>30000</v>
@@ -14286,16 +14554,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="16">
         <v>10000</v>
@@ -14308,16 +14576,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="16">
         <v>10000</v>
@@ -14330,16 +14598,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="16">
         <v>25000</v>
@@ -14352,19 +14620,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" s="1">
         <v>43312</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="16">
         <v>15000</v>
@@ -14377,19 +14645,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C14" s="1">
         <v>43314</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="16">
         <v>10000</v>
@@ -14402,19 +14670,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C15" s="1">
         <v>43318</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G15" s="16">
         <v>15000</v>
@@ -14427,20 +14695,20 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1">
         <v>43434</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" s="16">
         <v>20000</v>
@@ -14487,325 +14755,325 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="17" thickTop="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickTop="1">
+      <c r="I1" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" thickTop="1">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>379</v>
+      </c>
+      <c r="J2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="I3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="I4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>124</v>
       </c>
@@ -14813,7 +15081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>125</v>
       </c>
@@ -14821,7 +15089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
@@ -14829,7 +15097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
         <v>127</v>
       </c>
@@ -14837,7 +15105,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
@@ -14845,7 +15113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:7">
       <c r="A23" s="20"/>
     </row>
   </sheetData>

--- a/Money.xlsx
+++ b/Money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/anand_nidamanuru_sap_com/Documents/Sync/Paisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="114_{941C0151-049D-FE41-A889-D7C560FB2FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{824DEBCF-D78E-C649-9E2A-BB4F9E701421}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="114_{941C0151-049D-FE41-A889-D7C560FB2FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E8F6EAA-C84C-B942-A04B-96B3DDF3EAE3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standing" sheetId="2" r:id="rId1"/>
@@ -30,21 +30,18 @@
     <sheet name="Nani Credit card EMI" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="Loan for Bro" sheetId="10" state="hidden" r:id="rId16"/>
     <sheet name="Chiti pata" sheetId="11" state="hidden" r:id="rId17"/>
-    <sheet name="SMP Shares" sheetId="17" r:id="rId18"/>
-    <sheet name="OwnSAP Shares" sheetId="20" r:id="rId19"/>
-    <sheet name="Papai &amp; Tej" sheetId="18" state="hidden" r:id="rId20"/>
-    <sheet name="Intlo appu sim" sheetId="24" r:id="rId21"/>
+    <sheet name="Papai &amp; Tej" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="Intlo appu sim" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">History_Paisa!$A$1:$G$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Investments!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Investments (2)'!$A$1:$G$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'OwnSAP Shares'!$I$1:$P$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Standing!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -79,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="511">
   <si>
     <t>Some time back</t>
   </si>
@@ -1128,18 +1125,6 @@
     <t>Self</t>
   </si>
   <si>
-    <t>SAP Match 2010</t>
-  </si>
-  <si>
-    <t>SAP Match 2012</t>
-  </si>
-  <si>
-    <t>SAP Match 2013</t>
-  </si>
-  <si>
-    <t>SAP Match 2014</t>
-  </si>
-  <si>
     <t>Hari, Chirala Susmitha (Akka)</t>
   </si>
   <si>
@@ -1245,51 +1230,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Euro Price</t>
-  </si>
-  <si>
-    <t>Purchase price</t>
-  </si>
-  <si>
-    <t>Salary Month</t>
-  </si>
-  <si>
-    <t>Sep-10</t>
-  </si>
-  <si>
-    <t>Perk1</t>
-  </si>
-  <si>
-    <t>SMP Taxable D</t>
-  </si>
-  <si>
-    <t>SMP Tax Matching</t>
-  </si>
-  <si>
-    <t>July-14</t>
-  </si>
-  <si>
-    <t>Discounted price cost</t>
-  </si>
-  <si>
-    <t>Amount2</t>
-  </si>
-  <si>
-    <t>SMP Match 2010</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>June-12</t>
-  </si>
-  <si>
     <t>Loan + Some extra</t>
   </si>
   <si>
@@ -1323,168 +1263,6 @@
     <t>Remaining</t>
   </si>
   <si>
-    <t>INR/EUR</t>
-  </si>
-  <si>
-    <t>What company has provided as benefit</t>
-  </si>
-  <si>
-    <t>May-15</t>
-  </si>
-  <si>
-    <t>SMP – STC net payout (Sell To Cover)</t>
-  </si>
-  <si>
-    <t>Sep-16</t>
-  </si>
-  <si>
-    <t>June-17</t>
-  </si>
-  <si>
-    <t>Purchase price (EUR)</t>
-  </si>
-  <si>
-    <t>Gain per unit (EUR)</t>
-  </si>
-  <si>
-    <t>Purchase price INR</t>
-  </si>
-  <si>
-    <t>Total Gain EUR (Units * Gain)</t>
-  </si>
-  <si>
-    <t>Tx Fee (EUR)</t>
-  </si>
-  <si>
-    <t>SMP Match 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Total Purchase</t>
-  </si>
-  <si>
-    <t>Total Sell (From bank stmt)</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>INW 300419I049903015 EUR2261.4@76.71</t>
-  </si>
-  <si>
-    <t>INW 300419I049903015 CGST</t>
-  </si>
-  <si>
-    <t>Selling price (EUR)</t>
-  </si>
-  <si>
-    <t>INW 300419I049903015 SGST</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>40% discount</t>
-  </si>
-  <si>
-    <t>Calculated price</t>
-  </si>
-  <si>
-    <t>Prorated Inflation</t>
-  </si>
-  <si>
-    <t>2018-2019</t>
-  </si>
-  <si>
-    <t>Prorate Index</t>
-  </si>
-  <si>
-    <t>Prorated Pur price</t>
-  </si>
-  <si>
-    <t>Sell (From Bank)</t>
-  </si>
-  <si>
-    <t>Sale Date</t>
-  </si>
-  <si>
-    <t>INWEUR5225@77.4</t>
-  </si>
-  <si>
-    <t>INWINR226.99@1.0</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Sell price</t>
-  </si>
-  <si>
-    <t>Sell date</t>
-  </si>
-  <si>
-    <t>Gain/Loss</t>
-  </si>
-  <si>
-    <t>Total pur price</t>
-  </si>
-  <si>
-    <t>Prorated</t>
-  </si>
-  <si>
-    <t>Prorated loss/gain</t>
-  </si>
-  <si>
-    <t>Sale price INR</t>
-  </si>
-  <si>
-    <t>Sell EUR to INR</t>
-  </si>
-  <si>
-    <t>Sold shares</t>
-  </si>
-  <si>
-    <t>Tx fee (EUR)</t>
-  </si>
-  <si>
-    <t>Share price (EUR)</t>
-  </si>
-  <si>
-    <t>Transaction confirmation no</t>
-  </si>
-  <si>
-    <t>GSI10290116 / 17641975</t>
-  </si>
-  <si>
-    <t>Allocation Date</t>
-  </si>
-  <si>
-    <t>Purchased Shares</t>
-  </si>
-  <si>
-    <t>Purchase Price (EUR)</t>
-  </si>
-  <si>
-    <t>Contribution (EUR)</t>
-  </si>
-  <si>
-    <t>Sold On</t>
-  </si>
-  <si>
-    <t>Selling Price (EUR)</t>
-  </si>
-  <si>
-    <t>NEFT Cr-CITI0100000-RTGS FTU PAYLINK P32 TRANSIT AC-ANAND NIDAMANURU-CITIN19051454771</t>
-  </si>
-  <si>
-    <t>CITIN19051454771 </t>
-  </si>
-  <si>
-    <t>Bank Transaction</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
@@ -1528,9 +1306,6 @@
   </si>
   <si>
     <t>Axis Blue chip Direct Growth</t>
-  </si>
-  <si>
-    <t>Net amount sold</t>
   </si>
   <si>
     <t>Mamayya garu</t>
@@ -1837,48 +1612,6 @@
   </si>
   <si>
     <t>Rent for Pandaripuram house</t>
-  </si>
-  <si>
-    <t>Total Purchase price</t>
-  </si>
-  <si>
-    <t>Indian Shares via ShareKhan</t>
-  </si>
-  <si>
-    <t>Total Sell Price</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>Per share sell price INR</t>
-  </si>
-  <si>
-    <t>Pur Price from Sal slip</t>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>EUR to INR</t>
-  </si>
-  <si>
-    <t>NEFT CR-CITI0100000-RTGS FTU PAYLINK P32 TRANSIT AC-ANAND NIDAMANURU-CITIN19063821009</t>
-  </si>
-  <si>
-    <t>CITIN19063821009</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>NEFT CR-CITI0100000-RTGS FTU PAYLINK P32 TRANSIT AC-ANAND NIDAMANURU-CITIN20023159300</t>
-  </si>
-  <si>
-    <t>CITIN20023159300</t>
-  </si>
-  <si>
-    <t>Sep-13</t>
   </si>
 </sst>
 </file>
@@ -1892,23 +1625,9 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="19">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1998,39 +1717,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A2A2A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF272727"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
@@ -2069,7 +1755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2138,12 +1824,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -2302,20 +1982,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2325,101 +2004,90 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="5"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2429,48 +2097,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+  <cellStyles count="5">
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -2941,7 +2607,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F72E440-EBC0-0143-8F1F-6F7022C5AB01}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Investment Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F72E440-EBC0-0143-8F1F-6F7022C5AB01}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Investment Type">
   <location ref="J1:K23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -3522,10 +3188,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3539,13 +3205,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3559,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3573,13 +3239,13 @@
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3658,13 +3324,13 @@
         <v>5000</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3932,10 +3598,10 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="112"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="41"/>
       <c r="K10" s="42"/>
       <c r="L10" s="21"/>
@@ -4371,13 +4037,13 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="91">
+      <c r="A11" s="80">
         <v>43478</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="B12">
         <v>1100000</v>
@@ -4385,7 +4051,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="B13">
         <v>1400000</v>
@@ -4393,7 +4059,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="B14">
         <v>500000</v>
@@ -4401,7 +4067,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="B15">
         <v>400000</v>
@@ -4409,7 +4075,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="B16">
         <v>1000000</v>
@@ -4417,7 +4083,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="B17">
         <v>600000</v>
@@ -4425,42 +4091,42 @@
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="18" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="B18">
         <v>200000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="D22" s="73"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="D23" s="73"/>
+      <c r="D23" s="70"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24">
         <f>SUM(B12:B18)</f>
         <v>5200000</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="70"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="D25" s="73"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="D26" s="73"/>
+      <c r="D26" s="70"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="D27" s="73"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="D28" s="73"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="D29" s="73"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="D30" s="73"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="31" spans="1:4">
       <c r="D31" s="1"/>
@@ -4536,12 +4202,12 @@
         <v>299</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="95" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4553,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="G2" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="H2">
         <v>13.56</v>
@@ -4567,13 +4233,13 @@
         <v>150000</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="G3" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="H3">
         <v>15.47</v>
@@ -4587,10 +4253,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="G4" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -4610,7 +4276,7 @@
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="H5">
         <v>2.7</v>
@@ -4620,7 +4286,7 @@
       <c r="A6" s="1">
         <v>40299</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="100">
         <v>-100000</v>
       </c>
       <c r="D6" t="s">
@@ -4630,7 +4296,7 @@
         <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>583</v>
+        <v>509</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -4650,7 +4316,7 @@
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4681,7 +4347,7 @@
         <v>348</v>
       </c>
       <c r="E9" t="s">
-        <v>572</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4797,7 +4463,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="92">
+      <c r="A18" s="81">
         <v>41771</v>
       </c>
       <c r="B18" s="13"/>
@@ -4805,7 +4471,7 @@
         <v>50000</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>232</v>
@@ -4826,7 +4492,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="92">
+      <c r="A20" s="81">
         <v>42193</v>
       </c>
       <c r="B20" s="13"/>
@@ -4834,7 +4500,7 @@
         <v>30000</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>232</v>
@@ -4855,7 +4521,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="92">
+      <c r="A22" s="81">
         <v>42370</v>
       </c>
       <c r="B22" s="13"/>
@@ -4863,7 +4529,7 @@
         <v>50000</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>232</v>
@@ -4884,7 +4550,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="92">
+      <c r="A24" s="81">
         <v>42522</v>
       </c>
       <c r="B24" s="13"/>
@@ -4892,7 +4558,7 @@
         <v>20000</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>307</v>
@@ -4906,14 +4572,14 @@
         <v>22000</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="92">
+      <c r="A26" s="81">
         <v>42552</v>
       </c>
       <c r="B26" s="13"/>
@@ -4921,7 +4587,7 @@
         <v>10000</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>309</v>
@@ -4948,11 +4614,11 @@
       <c r="B28">
         <v>90000</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="72" t="s">
         <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4966,7 +4632,7 @@
         <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4980,7 +4646,7 @@
         <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4991,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5002,7 +4668,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5016,7 +4682,7 @@
         <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5027,10 +4693,10 @@
         <v>1000000</v>
       </c>
       <c r="D34" t="s">
-        <v>571</v>
+        <v>497</v>
       </c>
       <c r="E34" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5038,7 +4704,7 @@
         <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5110,416 +4776,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>520</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="107" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1" s="107" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="107" t="s">
+      <c r="A1" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="107" t="s">
-        <v>577</v>
-      </c>
-      <c r="H1" s="107" t="s">
+      <c r="G1" s="96" t="s">
+        <v>503</v>
+      </c>
+      <c r="H1" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="107" t="s">
-        <v>534</v>
-      </c>
-      <c r="J1" s="107" t="s">
+      <c r="I1" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="107" t="s">
-        <v>525</v>
-      </c>
-      <c r="N1" s="107" t="s">
+      <c r="M1" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="N1" s="96" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="105">
+      <c r="A2" s="94">
         <v>40634</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="93">
         <v>11.56</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C2" s="93">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="93">
         <v>10.41</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="93">
         <v>2.4</v>
       </c>
-      <c r="F2" s="104">
+      <c r="F2" s="93">
         <v>0.96</v>
       </c>
-      <c r="G2" s="104">
+      <c r="G2" s="93">
         <v>7.05</v>
       </c>
-      <c r="H2" s="104">
+      <c r="H2" s="93">
         <v>2</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="93">
         <v>0.7</v>
       </c>
-      <c r="J2" s="104"/>
+      <c r="J2" s="93"/>
       <c r="M2">
         <v>36.35</v>
       </c>
       <c r="N2" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="105">
+      <c r="A3" s="94">
         <v>41000</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="93">
         <v>12.5</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="93">
         <v>1.32</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="93">
         <v>11.18</v>
       </c>
-      <c r="E3" s="104">
+      <c r="E3" s="93">
         <v>4.2</v>
       </c>
-      <c r="F3" s="104">
+      <c r="F3" s="93">
         <v>1.44</v>
       </c>
-      <c r="G3" s="104">
+      <c r="G3" s="93">
         <v>5.54</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="93">
         <v>1.2</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="93">
         <v>0.7</v>
       </c>
-      <c r="J3" s="104"/>
+      <c r="J3" s="93"/>
       <c r="M3">
         <v>15.47</v>
       </c>
       <c r="N3" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="105">
+      <c r="A4" s="94">
         <v>41365</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="93">
         <v>13.8</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="93">
         <v>2.17</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="93">
         <v>11.63</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="93">
         <v>4.2</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="93">
         <v>1.44</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="93">
         <v>5.99</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="93">
         <v>3.25</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="93">
         <v>0.7</v>
       </c>
-      <c r="J4" s="104"/>
+      <c r="J4" s="93"/>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="105">
+      <c r="A5" s="94">
         <v>41730</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="93">
         <v>21.11</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="93">
         <v>3.73</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="93">
         <v>17.38</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="93">
         <v>4.2</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="93">
         <v>1.68</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="93">
         <v>11.5</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="93">
         <v>1.81</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="93">
         <v>0.7</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="93">
         <v>0.5</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="105">
+      <c r="A6" s="94">
         <v>42095</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="93">
         <v>21.97</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="93">
         <v>3.64</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="93">
         <v>18.329999999999998</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="93">
         <v>4.2</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="93">
         <v>1.68</v>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="93">
         <v>12.45</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="93">
         <v>0.75</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="93">
         <v>0.7</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="93">
         <v>0.3</v>
       </c>
       <c r="M6">
         <v>20.2</v>
       </c>
       <c r="N6" t="s">
-        <v>573</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="105">
+      <c r="A7" s="94">
         <v>42461</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="93">
         <v>28.1</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="93">
         <v>5.55</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="93">
         <v>22.55</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="93">
         <v>4.8</v>
       </c>
-      <c r="F7" s="104">
+      <c r="F7" s="93">
         <v>1.68</v>
       </c>
-      <c r="G7" s="104">
+      <c r="G7" s="93">
         <v>16.07</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="93">
         <v>0.75</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="93">
         <v>0.7</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="93">
         <v>0.5</v>
       </c>
       <c r="M7">
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>530</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="105">
+      <c r="A8" s="94">
         <v>42826</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="93">
         <v>32</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="93">
         <v>7.04</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="93">
         <v>24.96</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="93">
         <v>4.8</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="93">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="93">
         <v>17.940000000000001</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="93">
         <v>0.75</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="93">
         <v>0.7</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="93">
         <v>0.2</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>531</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="105">
+      <c r="A9" s="94">
         <v>43191</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="93">
         <v>36.57</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="93">
         <v>8.15</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="93">
         <v>28.42</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="93">
         <v>4.8</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="93">
         <v>0</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="93">
         <v>23.62</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="93">
         <v>0.9</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="93">
         <v>0.7</v>
       </c>
-      <c r="J9" s="104"/>
+      <c r="J9" s="93"/>
       <c r="M9">
         <f>10*0.45</f>
         <v>4.5</v>
       </c>
       <c r="N9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="105">
+      <c r="A10" s="94">
         <v>43556</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="93">
         <v>41.06</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="93">
         <v>9.6</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="93">
         <v>31.46</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="93">
         <v>4.8</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="93">
         <v>0</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="93">
         <v>26.66</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="93">
         <v>1.4</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="93">
         <v>0.7</v>
       </c>
-      <c r="J10" s="104"/>
+      <c r="J10" s="93"/>
       <c r="M10">
         <v>3.2</v>
       </c>
       <c r="N10" t="s">
-        <v>532</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="105">
+      <c r="A11" s="94">
         <v>43922</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="93">
         <v>42.9</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="93">
         <v>10.14</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="93">
         <v>32.76</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="93">
         <v>4.8</v>
       </c>
-      <c r="F11" s="104">
+      <c r="F11" s="93">
         <v>0</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="93">
         <v>27.96</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="93">
         <v>0.75</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="93">
         <v>0.7</v>
       </c>
-      <c r="J11" s="104"/>
+      <c r="J11" s="93"/>
       <c r="M11">
         <v>7.2</v>
       </c>
       <c r="N11" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="105"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="A12" s="94"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
       <c r="M12">
         <v>6.56</v>
       </c>
@@ -5536,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5553,7 +5219,7 @@
         <v>6.75</v>
       </c>
       <c r="N15" t="s">
-        <v>574</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5561,7 +5227,7 @@
         <v>3.5</v>
       </c>
       <c r="N16" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="13:14">
@@ -5569,7 +5235,7 @@
         <v>2.4</v>
       </c>
       <c r="N17" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="13:14">
@@ -5587,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BE986E-3A18-7B41-8F07-1A6754980F89}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5612,7 +5278,7 @@
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
@@ -5621,7 +5287,7 @@
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="68" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
@@ -5630,9 +5296,9 @@
       </c>
       <c r="O1" s="68"/>
       <c r="P1" s="68" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="108"/>
+        <v>461</v>
+      </c>
+      <c r="Q1" s="97"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
@@ -5670,23 +5336,23 @@
         <f>SUM(L2:L91)</f>
         <v>2018551</v>
       </c>
-      <c r="P2" s="99" t="s">
+      <c r="P2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="100" t="s">
-        <v>536</v>
-      </c>
-      <c r="R2" s="99" t="s">
-        <v>535</v>
-      </c>
-      <c r="T2" s="74" t="s">
-        <v>563</v>
+      <c r="Q2" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="R2" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="T2" s="71" t="s">
+        <v>489</v>
       </c>
       <c r="U2" t="s">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="V2" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -5699,13 +5365,13 @@
       <c r="L3">
         <v>42251</v>
       </c>
-      <c r="P3" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q3" s="101" t="s">
-        <v>538</v>
-      </c>
-      <c r="R3" s="102"/>
+      <c r="P3" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q3" s="90" t="s">
+        <v>464</v>
+      </c>
+      <c r="R3" s="91"/>
       <c r="S3" s="1">
         <v>44044</v>
       </c>
@@ -5730,12 +5396,12 @@
       <c r="L4">
         <v>42251</v>
       </c>
-      <c r="P4" s="82" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="102" t="s">
-        <v>561</v>
+      <c r="P4" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91" t="s">
+        <v>487</v>
       </c>
       <c r="S4" s="1">
         <v>43952</v>
@@ -5761,13 +5427,13 @@
       <c r="L5">
         <v>100</v>
       </c>
-      <c r="P5" s="82" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q5" s="101" t="s">
-        <v>559</v>
-      </c>
-      <c r="R5" s="102"/>
+      <c r="P5" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q5" s="90" t="s">
+        <v>485</v>
+      </c>
+      <c r="R5" s="91"/>
       <c r="S5" s="1">
         <v>43862</v>
       </c>
@@ -5792,13 +5458,13 @@
       <c r="L6">
         <v>42251</v>
       </c>
-      <c r="P6" s="82" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q6" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="R6" s="102"/>
+      <c r="P6" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q6" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="R6" s="91"/>
       <c r="S6" s="1">
         <v>43770</v>
       </c>
@@ -5823,13 +5489,13 @@
       <c r="L7">
         <v>42251</v>
       </c>
-      <c r="P7" s="82" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q7" s="101" t="s">
-        <v>560</v>
-      </c>
-      <c r="R7" s="102"/>
+      <c r="P7" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q7" s="90" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" s="91"/>
       <c r="S7" s="1">
         <v>43678</v>
       </c>
@@ -5855,13 +5521,13 @@
         <f>SUM(L2:L7)</f>
         <v>188866</v>
       </c>
-      <c r="P8" s="82" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q8" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="R8" s="102"/>
+      <c r="P8" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q8" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="R8" s="91"/>
       <c r="S8" s="1">
         <v>43497</v>
       </c>
@@ -5886,13 +5552,13 @@
       <c r="L9">
         <v>42251</v>
       </c>
-      <c r="P9" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q9" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="R9" s="102"/>
+      <c r="P9" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q9" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="R9" s="91"/>
       <c r="S9" s="1">
         <v>43405</v>
       </c>
@@ -5917,13 +5583,13 @@
       <c r="L10">
         <v>42251</v>
       </c>
-      <c r="P10" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q10" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="R10" s="102"/>
+      <c r="P10" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q10" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="R10" s="91"/>
       <c r="S10" s="1">
         <v>43313</v>
       </c>
@@ -5945,12 +5611,12 @@
       <c r="L11">
         <v>42251</v>
       </c>
-      <c r="P11" s="82" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102" t="s">
-        <v>547</v>
+      <c r="P11" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91" t="s">
+        <v>473</v>
       </c>
       <c r="S11" s="1">
         <v>43221</v>
@@ -5977,12 +5643,12 @@
       <c r="L12">
         <v>42251</v>
       </c>
-      <c r="P12" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102" t="s">
-        <v>549</v>
+      <c r="P12" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91" t="s">
+        <v>475</v>
       </c>
       <c r="S12" s="1">
         <v>42795</v>
@@ -6008,13 +5674,13 @@
       <c r="L13">
         <v>42251</v>
       </c>
-      <c r="P13" s="82" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q13" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="R13" s="102"/>
+      <c r="P13" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q13" s="90" t="s">
+        <v>484</v>
+      </c>
+      <c r="R13" s="91"/>
       <c r="S13" s="1">
         <v>42705</v>
       </c>
@@ -6039,13 +5705,13 @@
       <c r="L14">
         <v>42251</v>
       </c>
-      <c r="P14" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q14" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="R14" s="102"/>
+      <c r="P14" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q14" s="90" t="s">
+        <v>484</v>
+      </c>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:22">
       <c r="B15">
@@ -6057,12 +5723,12 @@
       <c r="L15">
         <v>42251</v>
       </c>
-      <c r="P15" s="82" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102" t="s">
-        <v>553</v>
+      <c r="P15" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -6075,13 +5741,13 @@
       <c r="L16">
         <v>42251</v>
       </c>
-      <c r="P16" s="82" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q16" s="103" t="s">
-        <v>557</v>
-      </c>
-      <c r="R16" s="102"/>
+      <c r="P16" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17">
@@ -6093,12 +5759,12 @@
       <c r="L17">
         <v>42251</v>
       </c>
-      <c r="P17" s="82" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="102" t="s">
-        <v>562</v>
+      <c r="P17" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="2:21">
@@ -6111,13 +5777,13 @@
       <c r="L18">
         <v>42251</v>
       </c>
-      <c r="P18" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>557</v>
-      </c>
-      <c r="R18" s="102"/>
+      <c r="P18" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q18" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="R18" s="91"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19">
@@ -6129,9 +5795,9 @@
       <c r="L19">
         <v>42251</v>
       </c>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="91"/>
     </row>
     <row r="20" spans="2:21" ht="17">
       <c r="B20">
@@ -6143,9 +5809,9 @@
       <c r="L20">
         <v>42251</v>
       </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="97"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="86"/>
     </row>
     <row r="21" spans="2:21" ht="17">
       <c r="B21">
@@ -6158,10 +5824,10 @@
         <f>SUM(L9:L20)</f>
         <v>507012</v>
       </c>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="79"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="73"/>
     </row>
     <row r="22" spans="2:21" ht="17">
       <c r="B22">
@@ -6173,10 +5839,10 @@
       <c r="L22">
         <v>42251</v>
       </c>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="79"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="73"/>
     </row>
     <row r="23" spans="2:21" ht="17">
       <c r="B23">
@@ -6188,10 +5854,10 @@
       <c r="L23">
         <v>40200</v>
       </c>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="79"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="73"/>
     </row>
     <row r="24" spans="2:21" ht="17">
       <c r="C24">
@@ -6205,10 +5871,10 @@
       <c r="L24">
         <v>47</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="79"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="73"/>
     </row>
     <row r="25" spans="2:21" ht="17">
       <c r="B25">
@@ -6220,9 +5886,9 @@
       <c r="L25">
         <v>200000</v>
       </c>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="97"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="86"/>
     </row>
     <row r="26" spans="2:21" ht="16">
       <c r="B26">
@@ -6234,20 +5900,20 @@
       <c r="L26">
         <v>38525</v>
       </c>
-      <c r="P26" s="109" t="s">
+      <c r="P26" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110" t="s">
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="S26" s="110" t="s">
+      <c r="S26" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="T26" s="109" t="s">
-        <v>578</v>
-      </c>
-      <c r="U26" s="110" t="s">
+      <c r="T26" s="98" t="s">
+        <v>504</v>
+      </c>
+      <c r="U26" s="99" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7894,1145 +7560,430 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6551FCA-F565-3141-9575-A9B69266907A}">
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2">
+        <v>18000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43622</v>
+      </c>
+      <c r="I3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
+        <v>4000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>389</v>
+      </c>
+      <c r="O3" t="s">
+        <v>392</v>
+      </c>
+      <c r="P3">
+        <f>SUM(I3:I560)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4">
+        <v>-8200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="6">
+        <v>43623</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="O4" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4">
+        <f>SUM(K3:K560)</f>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="70">
+        <v>43435</v>
+      </c>
+      <c r="B5">
+        <v>-100000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43624</v>
+      </c>
+      <c r="O5" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5">
+        <f>P3-P4</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6">
+        <v>26000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7">
+        <v>14000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>414</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>394</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>395</v>
-      </c>
-      <c r="S1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40410</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>35.119999999999997</v>
-      </c>
-      <c r="F2">
-        <v>21.07</v>
-      </c>
-      <c r="G2">
-        <v>59.6</v>
-      </c>
-      <c r="H2">
-        <f>E2*G2*D2</f>
-        <v>25117.824000000001</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="J2">
-        <v>15050</v>
-      </c>
-      <c r="K2">
-        <v>9955</v>
-      </c>
-      <c r="L2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M2">
-        <f>J2+K2</f>
-        <v>25005</v>
-      </c>
-      <c r="O2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16">
-      <c r="A3">
-        <v>2012</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41047</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>46.02</v>
-      </c>
-      <c r="F3">
-        <v>28.94</v>
-      </c>
-      <c r="G3">
-        <v>72.040000000000006</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="0">E3*G3*D3</f>
-        <v>39783.369600000005</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="J3">
-        <v>23995</v>
-      </c>
-      <c r="K3">
-        <v>13925</v>
-      </c>
-      <c r="L3" t="s">
-        <v>395</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M9" si="1">J3+K3</f>
-        <v>37920</v>
-      </c>
-      <c r="O3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="X3" s="70"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41500</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>53.95</v>
-      </c>
-      <c r="G4">
-        <v>85</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>55029</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="J4">
-        <v>32926</v>
-      </c>
-      <c r="K4" s="16">
-        <v>21754</v>
-      </c>
-      <c r="L4" t="s">
-        <v>395</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>54680</v>
-      </c>
-      <c r="O4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41508</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>56.29</v>
-      </c>
-      <c r="G5">
-        <v>85</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>19138.599999999999</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="K5">
-        <v>18958</v>
-      </c>
-      <c r="L5" t="s">
-        <v>396</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>18958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="1">
-        <v>41775</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>55.45</v>
-      </c>
-      <c r="F6">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="G6">
-        <v>76.13</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>50656.901999999995</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="J6">
-        <v>32466</v>
-      </c>
-      <c r="K6">
-        <v>20773</v>
-      </c>
-      <c r="L6" t="s">
-        <v>395</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>53239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42131</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>67.44</v>
-      </c>
-      <c r="G7">
-        <v>71.94</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>58219.603199999998</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K7">
-        <v>95110</v>
-      </c>
-      <c r="L7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>95110</v>
-      </c>
-      <c r="N7">
-        <v>37365</v>
-      </c>
-      <c r="O7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42598</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>78.64</v>
-      </c>
-      <c r="G8">
-        <v>71.08</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>11179.4624</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K8">
-        <v>23522</v>
-      </c>
-      <c r="L8" t="s">
-        <v>396</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>23522</v>
-      </c>
-      <c r="N8">
-        <v>10194</v>
-      </c>
-      <c r="O8" t="s">
-        <v>417</v>
-      </c>
-      <c r="S8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42861</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>93.45</v>
-      </c>
-      <c r="G9">
-        <v>70.73</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>26438.874000000003</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K9">
-        <v>26377.200000000001</v>
-      </c>
-      <c r="L9" t="s">
-        <v>396</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>26377.200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D2:D9)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="B12" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>438</v>
-      </c>
-      <c r="B13">
-        <v>280</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43266</v>
-      </c>
-      <c r="D13">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="L14" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="M14" s="71" t="s">
-        <v>432</v>
-      </c>
-      <c r="N14" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="19" customHeight="1">
-      <c r="A15">
-        <v>2010</v>
-      </c>
-      <c r="B15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15">
-        <v>35.119999999999997</v>
-      </c>
-      <c r="D15">
-        <v>69.84</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <f>(C15+D15)*E15*$D$13</f>
-        <v>97486.848000000013</v>
-      </c>
-      <c r="G15">
-        <v>25005</v>
-      </c>
-      <c r="H15">
-        <v>167</v>
+      <c r="H7" s="6">
+        <v>43626</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8">
+        <v>20000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43627</v>
+      </c>
+      <c r="I8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="H9" s="6">
+        <v>43628</v>
+      </c>
+      <c r="I9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="H10" s="6">
+        <v>43629</v>
+      </c>
+      <c r="I10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="H11" s="6">
+        <v>43630</v>
+      </c>
+      <c r="I11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="H12" s="6">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="H13" s="6">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="H14" s="6">
+        <v>43633</v>
+      </c>
+      <c r="I14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15" s="6">
+        <v>43634</v>
       </c>
       <c r="I15">
-        <f>$B$13/H15*G15</f>
-        <v>41924.55089820359</v>
-      </c>
-      <c r="K15" s="1">
-        <v>43266</v>
-      </c>
-      <c r="L15" t="s">
-        <v>434</v>
-      </c>
-      <c r="M15">
-        <v>104.96</v>
-      </c>
-      <c r="N15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="H16" s="6">
+        <v>43635</v>
+      </c>
+      <c r="I16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="6">
+        <v>43636</v>
+      </c>
+      <c r="I17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="6">
+        <v>43637</v>
+      </c>
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="O15">
-        <f>404415 - 227 - 227</f>
-        <v>403961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="19" customHeight="1">
-      <c r="A16">
-        <v>2012</v>
-      </c>
-      <c r="B16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16">
-        <v>46.02</v>
-      </c>
-      <c r="D16">
-        <v>58.94</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F19" si="2">(C16+D16)*E16*$D$13</f>
-        <v>97486.848000000013</v>
-      </c>
-      <c r="G16">
-        <v>37920</v>
-      </c>
-      <c r="H16">
-        <v>200</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I19" si="3">$B$13/H16*G16</f>
-        <v>53088</v>
-      </c>
-      <c r="K16" s="76">
-        <v>43580</v>
-      </c>
-      <c r="L16" t="s">
-        <v>434</v>
-      </c>
-      <c r="M16">
-        <v>114.22</v>
-      </c>
-      <c r="N16">
-        <v>20</v>
-      </c>
-      <c r="O16">
-        <v>173471.99</v>
-      </c>
-      <c r="P16">
-        <f>O16/(M16*N16)</f>
-        <v>75.937659779373135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="19" customHeight="1">
-      <c r="A17">
-        <v>2013</v>
-      </c>
-      <c r="B17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17">
-        <v>53.95</v>
-      </c>
-      <c r="D17">
-        <v>51.01</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>97486.848000000013</v>
-      </c>
-      <c r="G17">
-        <v>54680</v>
-      </c>
-      <c r="H17">
-        <v>220</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>69592.727272727265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="19" customHeight="1">
-      <c r="A18">
-        <v>2013</v>
-      </c>
-      <c r="B18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18">
-        <v>56.29</v>
-      </c>
-      <c r="D18">
-        <v>48.67</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>32495.616000000005</v>
-      </c>
-      <c r="G18">
-        <v>18958</v>
-      </c>
-      <c r="H18">
-        <v>220</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>24128.363636363636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="19" customHeight="1">
-      <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19">
-        <v>55.45</v>
-      </c>
-      <c r="D19">
-        <v>49.51</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>81239.040000000023</v>
-      </c>
-      <c r="G19">
-        <f>M6*10/12</f>
-        <v>44365.833333333336</v>
-      </c>
-      <c r="H19">
-        <v>240</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>51760.138888888898</v>
-      </c>
-      <c r="K19" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="19" customHeight="1">
-      <c r="E20" s="74" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F15:F19)</f>
-        <v>406195.20000000007</v>
-      </c>
-      <c r="G20">
-        <f>SUM(G15:G19)</f>
-        <v>180928.83333333334</v>
-      </c>
-      <c r="I20">
-        <f>SUM(I15:I19)</f>
-        <v>240493.78069618341</v>
-      </c>
-      <c r="K20" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="M20" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="N20" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="O20" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="P20" s="71" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q20" s="71" t="s">
-        <v>448</v>
-      </c>
-      <c r="R20" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="S20" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="T20" s="71" t="s">
-        <v>450</v>
-      </c>
-      <c r="U20" s="71" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="75"/>
-      <c r="E21" s="74" t="s">
-        <v>428</v>
-      </c>
-      <c r="G21">
-        <f>404415 - 227 - 227</f>
-        <v>403961</v>
-      </c>
-      <c r="I21"/>
-      <c r="K21" s="79">
-        <v>40633</v>
-      </c>
-      <c r="L21" t="s">
-        <v>445</v>
-      </c>
-      <c r="M21">
-        <v>373.9</v>
-      </c>
-      <c r="N21">
-        <v>20</v>
-      </c>
-      <c r="O21">
-        <v>186.58080000000001</v>
-      </c>
-      <c r="P21" s="79">
-        <v>43294</v>
-      </c>
-      <c r="Q21">
-        <v>-3746.384</v>
-      </c>
-      <c r="R21">
-        <v>184</v>
-      </c>
-      <c r="S21">
-        <f>M21*N21</f>
-        <v>7478</v>
-      </c>
-      <c r="T21">
-        <f>S21*B13/R21</f>
-        <v>11379.565217391304</v>
-      </c>
-      <c r="U21">
-        <f>T21-O21*N21</f>
-        <v>7647.949217391304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="75"/>
-      <c r="E22" s="74" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22">
-        <f>G21-G20</f>
-        <v>223032.16666666666</v>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="6">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="6">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="6">
+        <v>43640</v>
+      </c>
+      <c r="I21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="6">
+        <v>43641</v>
       </c>
       <c r="I22">
-        <f>G21-I20</f>
-        <v>163467.21930381659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="6">
+        <v>43642</v>
+      </c>
       <c r="I23">
-        <v>7647.949217391304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="E24" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="13">
-        <v>404415</v>
-      </c>
-      <c r="I24"/>
-      <c r="M24">
-        <f>M21*N21</f>
-        <v>7478</v>
-      </c>
-      <c r="O24">
-        <f>O21*N21</f>
-        <v>3731.616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="E25" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25">
-        <v>-227</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" s="6">
+        <v>43643</v>
+      </c>
+      <c r="I24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" s="6">
+        <v>43644</v>
       </c>
       <c r="I25">
-        <f>I22-I23</f>
-        <v>155819.27008642527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="E26" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="G26">
-        <v>-227</v>
-      </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="B27" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="B28" s="1">
-        <v>43580</v>
-      </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>588</v>
-      </c>
-      <c r="B29" t="s">
-        <v>589</v>
-      </c>
-      <c r="C29">
-        <f>O16/20</f>
-        <v>8673.5995000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>585</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>587</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31">
-        <v>2014</v>
-      </c>
-      <c r="B31" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31">
-        <v>55.45</v>
-      </c>
-      <c r="D31">
-        <v>58.77</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <f>E31*D31</f>
-        <v>117.54</v>
-      </c>
-      <c r="G31">
-        <f>M6*2/12</f>
-        <v>8873.1666666666661</v>
-      </c>
-      <c r="H31">
-        <f>$C$29*E31</f>
-        <v>17347.199000000001</v>
-      </c>
-      <c r="I31"/>
-      <c r="L31">
-        <v>240493.78069618341</v>
-      </c>
-      <c r="M31">
-        <f>L31*B13/H15</f>
-        <v>403223.10535887035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
-        <v>2015</v>
-      </c>
-      <c r="B32" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32">
-        <v>67.44</v>
-      </c>
-      <c r="D32">
-        <v>46.78</v>
-      </c>
-      <c r="E32">
-        <v>12</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F34" si="4">E32*D32</f>
-        <v>561.36</v>
-      </c>
-      <c r="G32">
-        <v>57458.879999999997</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ref="H32:H34" si="5">$C$29*E32</f>
-        <v>104083.194</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>2016</v>
-      </c>
-      <c r="B33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33">
-        <v>78.64</v>
-      </c>
-      <c r="D33">
-        <v>35.58</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
-        <v>71.16</v>
-      </c>
-      <c r="G33">
-        <v>23522</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>17347.199000000001</v>
-      </c>
-      <c r="I33"/>
-      <c r="L33">
-        <f>F20-G24</f>
-        <v>1780.2000000000698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>2017</v>
-      </c>
-      <c r="B34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34">
-        <v>93.45</v>
-      </c>
-      <c r="D34">
-        <v>20.77</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
-        <v>83.08</v>
-      </c>
-      <c r="G34">
-        <v>26377.200000000001</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>34694.398000000001</v>
-      </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="E35" s="74" t="s">
-        <v>426</v>
-      </c>
-      <c r="F35">
-        <f>SUM(F31:F34)</f>
-        <v>833.14</v>
-      </c>
-      <c r="I35">
-        <v>23</v>
-      </c>
-      <c r="J35">
-        <f>F35-I35</f>
-        <v>810.14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="E36" s="74" t="s">
-        <v>427</v>
-      </c>
-      <c r="G36">
-        <f>SUM(G31:G34)</f>
-        <v>116231.24666666666</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="E37" s="74" t="s">
-        <v>428</v>
-      </c>
-      <c r="G37">
-        <v>173471.99</v>
-      </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="E38" s="74" t="s">
-        <v>429</v>
-      </c>
-      <c r="G38">
-        <f>G37-G36</f>
-        <v>57240.743333333332</v>
-      </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="E40" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="G40">
-        <f>J35*76.71</f>
-        <v>62145.839399999997</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="E41" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="E42" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="G43">
-        <f>G40*10/100</f>
-        <v>6214.5839399999995</v>
-      </c>
-      <c r="I43"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="75"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="77"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="77"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="77"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="75"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="75"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="75"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="75"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="75"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="6">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="6">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="6">
+        <v>43647</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="6">
+        <v>43648</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="6">
+        <v>43649</v>
+      </c>
+      <c r="I30">
+        <v>800</v>
+      </c>
+      <c r="K30">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" s="6">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="6">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="6">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="6">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="6">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="6">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="6">
+        <v>43657</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,950 +7991,329 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0F7E9-F855-B640-B84E-6C3C77721B83}">
-  <dimension ref="A1:AA43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84395FC0-4E4E-FE4E-9D32-79BF7FC1E3C3}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1"/>
-    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16">
-      <c r="A1" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="I1" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>461</v>
-      </c>
-      <c r="L1" s="114" t="s">
-        <v>592</v>
-      </c>
-      <c r="M1" s="114" t="s">
-        <v>590</v>
-      </c>
-      <c r="N1" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="O1" s="80" t="s">
-        <v>463</v>
-      </c>
-      <c r="P1" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="80" t="s">
-        <v>464</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>483</v>
-      </c>
-      <c r="S1" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="V1" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="W1" s="80" t="s">
-        <v>461</v>
-      </c>
-      <c r="X1" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="Y1" s="80" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>43760</v>
-      </c>
-      <c r="B2">
-        <v>10.592632999999999</v>
-      </c>
-      <c r="C2">
-        <v>120.16</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42684</v>
-      </c>
-      <c r="J2">
-        <v>6.9836999999999998</v>
-      </c>
-      <c r="K2">
-        <v>78.8994</v>
-      </c>
-      <c r="N2">
-        <v>551.01</v>
-      </c>
-      <c r="U2" s="1">
-        <v>43616</v>
-      </c>
-      <c r="V2">
-        <v>1.5803199999999999</v>
-      </c>
-      <c r="W2">
-        <v>113.09099999999999</v>
-      </c>
-      <c r="X2">
-        <v>178.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1"/>
-      <c r="I3" s="1">
-        <v>42863</v>
-      </c>
-      <c r="J3">
-        <v>5.3132000000000001</v>
-      </c>
-      <c r="K3">
-        <v>94.053600000000003</v>
+    <row r="1" spans="1:19">
+      <c r="A1" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="M1" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="M2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" t="s">
+        <v>422</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="82" t="s">
+        <v>428</v>
+      </c>
+      <c r="R2" s="82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>499.73</v>
-      </c>
-      <c r="U3" s="1">
-        <v>43255</v>
-      </c>
-      <c r="V3">
-        <v>1.0838369999999999</v>
-      </c>
-      <c r="W3">
-        <v>95.890799999999999</v>
-      </c>
-      <c r="X3">
-        <v>103.93</v>
-      </c>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="I4" s="1">
-        <v>42863</v>
-      </c>
-      <c r="J4">
-        <v>5.3132000000000001</v>
-      </c>
-      <c r="K4">
-        <v>94.053600000000003</v>
-      </c>
-      <c r="N4">
-        <v>499.73</v>
-      </c>
-      <c r="U4" s="1">
-        <v>42880</v>
-      </c>
-      <c r="V4">
-        <v>0.3972</v>
-      </c>
-      <c r="W4">
-        <v>93.826099999999997</v>
-      </c>
-      <c r="X4">
-        <v>37.270000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82" t="s">
-        <v>595</v>
-      </c>
-      <c r="G5" s="82"/>
-      <c r="I5" s="1">
-        <v>42880</v>
-      </c>
-      <c r="J5">
-        <v>0.3972</v>
-      </c>
-      <c r="K5">
-        <v>93.826099999999997</v>
-      </c>
-      <c r="N5">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="83">
-        <v>43763</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="D6" s="83">
-        <v>43763</v>
-      </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85">
-        <v>97369.15</v>
-      </c>
-      <c r="G6" s="85"/>
-      <c r="I6" s="1">
-        <v>42894</v>
-      </c>
-      <c r="J6">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="K6">
-        <v>95.570700000000002</v>
-      </c>
-      <c r="N6">
-        <v>485.41</v>
-      </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>43788</v>
-      </c>
-      <c r="B7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" t="s">
-        <v>594</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43788</v>
+        <v>175</v>
+      </c>
+      <c r="O3">
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <v>39</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M5" t="s">
+        <v>423</v>
+      </c>
+      <c r="N5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" t="s">
+        <v>433</v>
+      </c>
+      <c r="O6" t="s">
+        <v>425</v>
+      </c>
+      <c r="P6" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>84902.65</v>
-      </c>
-      <c r="I7" s="1">
-        <v>42894</v>
-      </c>
-      <c r="J7">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="K7">
-        <v>95.570700000000002</v>
+        <f>C7+D3</f>
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <f>D7+F3</f>
+        <v>47</v>
       </c>
       <c r="N7">
-        <v>485.41</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C8" t="s">
-        <v>597</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43872</v>
-      </c>
-      <c r="F8">
-        <v>80043.039999999994</v>
-      </c>
-      <c r="I8" s="1">
-        <v>42922</v>
-      </c>
-      <c r="J8">
-        <v>5.2263999999999999</v>
-      </c>
-      <c r="K8">
-        <v>91.099900000000005</v>
-      </c>
-      <c r="N8">
-        <v>476.13</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="I9" s="1">
-        <v>42922</v>
-      </c>
-      <c r="J9">
-        <v>5.2263999999999999</v>
-      </c>
-      <c r="K9">
-        <v>91.099900000000005</v>
-      </c>
-      <c r="N9">
-        <v>476.13</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="I10" s="1">
-        <v>42955</v>
-      </c>
-      <c r="J10">
-        <v>5.1432000000000002</v>
-      </c>
-      <c r="K10">
-        <v>90.696399999999997</v>
-      </c>
-      <c r="N10">
-        <v>466.47</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="I11" s="1">
-        <v>42955</v>
-      </c>
-      <c r="J11">
-        <v>5.1432000000000002</v>
-      </c>
-      <c r="K11">
-        <v>90.696399999999997</v>
-      </c>
-      <c r="N11">
-        <v>466.47</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="I12" s="1">
-        <v>42985</v>
-      </c>
-      <c r="J12">
-        <v>5.1806999999999999</v>
-      </c>
-      <c r="K12">
-        <v>89.649699999999996</v>
+        <v>175</v>
+      </c>
+      <c r="O7">
+        <v>58.4</v>
+      </c>
+      <c r="P7">
+        <v>58.3</v>
+      </c>
+      <c r="Q7">
+        <v>58.3</v>
+      </c>
+      <c r="R7">
+        <f>O7-P3</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S7">
+        <f>P7-R3</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>432</v>
+      </c>
+      <c r="N10" t="s">
+        <v>434</v>
+      </c>
+      <c r="O10" t="s">
+        <v>435</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="N11" t="s">
+        <v>433</v>
+      </c>
+      <c r="O11" t="s">
+        <v>425</v>
+      </c>
+      <c r="P11" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <f>C12+D3</f>
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <f>D12-D10+F3</f>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>464.45</v>
-      </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="I13" s="1">
-        <v>42985</v>
-      </c>
-      <c r="J13">
-        <v>5.1806999999999999</v>
-      </c>
-      <c r="K13">
-        <v>89.649699999999996</v>
-      </c>
-      <c r="N13">
-        <v>464.45</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="I14" s="1">
-        <v>43017</v>
-      </c>
-      <c r="J14">
-        <v>4.7986000000000004</v>
-      </c>
-      <c r="K14">
-        <v>94.941299999999998</v>
-      </c>
-      <c r="N14">
-        <v>455.59</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="I15" s="1">
-        <v>43047</v>
-      </c>
-      <c r="J15">
-        <v>4.7103999999999999</v>
-      </c>
-      <c r="K15">
-        <v>98.918400000000005</v>
-      </c>
-      <c r="N15">
-        <v>465.95</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="I16" s="1">
-        <v>43077</v>
-      </c>
-      <c r="J16">
-        <v>4.7695780000000001</v>
-      </c>
-      <c r="K16">
-        <v>96.3733</v>
-      </c>
-      <c r="N16">
-        <v>459.66</v>
-      </c>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="9:27">
-      <c r="I17" s="1">
-        <v>43108</v>
-      </c>
-      <c r="J17">
-        <v>4.7379369999999996</v>
-      </c>
-      <c r="K17">
-        <v>96.738299999999995</v>
-      </c>
-      <c r="N17">
-        <v>458.34</v>
-      </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="9:27">
-      <c r="I18" s="1">
-        <v>43139</v>
-      </c>
-      <c r="J18">
-        <v>5.1819160000000002</v>
-      </c>
-      <c r="K18">
-        <v>85.489599999999996</v>
-      </c>
-      <c r="N18">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="9:27">
-      <c r="I19" s="1">
-        <v>43167</v>
-      </c>
-      <c r="J19">
-        <v>5.0675280000000003</v>
-      </c>
-      <c r="K19">
-        <v>86.933899999999994</v>
-      </c>
-      <c r="N19">
-        <v>440.54</v>
-      </c>
-    </row>
-    <row r="20" spans="9:27">
-      <c r="I20" s="1">
-        <v>43199</v>
-      </c>
-      <c r="J20">
-        <v>4.9944889999999997</v>
-      </c>
-      <c r="K20">
-        <v>87.466399999999993</v>
-      </c>
-      <c r="N20">
-        <v>436.85</v>
-      </c>
-      <c r="U20" s="83"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="85"/>
-    </row>
-    <row r="21" spans="9:27">
-      <c r="I21" s="1">
-        <v>43229</v>
-      </c>
-      <c r="J21">
-        <v>5.0398019999999999</v>
-      </c>
-      <c r="K21">
-        <v>96.640699999999995</v>
-      </c>
-      <c r="N21">
-        <v>487.05</v>
-      </c>
-      <c r="U21" s="83"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="85"/>
-    </row>
-    <row r="22" spans="9:27">
-      <c r="I22" s="1">
-        <v>43255</v>
-      </c>
-      <c r="J22">
-        <v>1.0838369999999999</v>
-      </c>
-      <c r="K22">
-        <v>95.890799999999999</v>
-      </c>
-      <c r="N22">
-        <v>103.93</v>
-      </c>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="9:27">
-      <c r="I23" s="1">
-        <v>43258</v>
-      </c>
-      <c r="J23">
-        <v>4.9699489999999997</v>
-      </c>
-      <c r="K23">
-        <v>99.699200000000005</v>
-      </c>
-      <c r="N23">
-        <v>495.5</v>
-      </c>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="9:27">
-      <c r="I24" s="1">
-        <v>43290</v>
-      </c>
-      <c r="J24">
-        <v>4.8459159999999999</v>
-      </c>
-      <c r="K24">
-        <v>100.9551</v>
-      </c>
-      <c r="N24">
-        <v>489.22</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="9:27">
-      <c r="I25" s="1">
-        <v>43320</v>
-      </c>
-      <c r="J25">
-        <v>4.8494739999999998</v>
-      </c>
-      <c r="K25">
-        <v>100.08920000000001</v>
-      </c>
-      <c r="N25">
-        <v>485.38</v>
-      </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="9:27">
-      <c r="I26" s="1">
-        <v>43350</v>
-      </c>
-      <c r="J26">
-        <v>4.7271140000000003</v>
-      </c>
-      <c r="K26">
-        <v>99.849500000000006</v>
-      </c>
-      <c r="N26">
-        <v>472</v>
-      </c>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="9:27">
-      <c r="I27" s="1">
-        <v>43382</v>
-      </c>
-      <c r="J27">
-        <v>4.5449970000000004</v>
-      </c>
-      <c r="K27">
-        <v>102.3785</v>
-      </c>
-      <c r="N27">
-        <v>465.31</v>
-      </c>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="9:27">
-      <c r="I28" s="1">
-        <v>43413</v>
-      </c>
-      <c r="J28">
-        <v>4.918793</v>
-      </c>
-      <c r="K28">
-        <v>94.8078</v>
-      </c>
-      <c r="N28">
-        <v>466.34</v>
-      </c>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="9:27">
-      <c r="I29" s="1">
-        <v>43441</v>
-      </c>
-      <c r="J29">
-        <v>5.4935640000000001</v>
-      </c>
-      <c r="K29">
-        <v>89.877899999999997</v>
-      </c>
-      <c r="N29">
-        <v>493.75</v>
-      </c>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="9:27">
-      <c r="I30" s="1">
-        <v>43474</v>
-      </c>
-      <c r="J30">
-        <v>5.4914100000000001</v>
-      </c>
-      <c r="K30">
-        <v>89.181100000000001</v>
-      </c>
-      <c r="N30">
-        <v>489.73</v>
-      </c>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="9:27">
-      <c r="I31" s="1">
-        <v>43504</v>
-      </c>
-      <c r="J31">
-        <v>5.2319240000000002</v>
-      </c>
-      <c r="K31">
-        <v>91.788399999999996</v>
-      </c>
-      <c r="N31">
-        <v>480.23</v>
-      </c>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="9:27">
-      <c r="I32" s="1">
-        <v>43532</v>
-      </c>
-      <c r="J32">
-        <v>5.0892059999999999</v>
-      </c>
-      <c r="K32">
-        <v>95.289900000000003</v>
-      </c>
-      <c r="N32">
-        <v>484.95</v>
-      </c>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="9:21">
-      <c r="I33" s="1">
-        <v>43563</v>
-      </c>
-      <c r="J33">
-        <v>4.9730179999999997</v>
-      </c>
-      <c r="K33">
-        <v>101.4957</v>
-      </c>
-      <c r="N33">
-        <v>504.74</v>
-      </c>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="9:21">
-      <c r="I34" s="1">
-        <v>43594</v>
-      </c>
-      <c r="J34">
-        <v>4.7908530000000003</v>
-      </c>
-      <c r="K34">
-        <v>111.1326</v>
-      </c>
-      <c r="M34">
-        <f>28510.31+13051.12</f>
-        <v>41561.43</v>
-      </c>
-      <c r="N34">
-        <v>532.41999999999996</v>
-      </c>
-      <c r="O34" s="1">
-        <v>43783</v>
-      </c>
-      <c r="Q34">
-        <v>122.18</v>
-      </c>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="9:21">
-      <c r="I35" s="1">
-        <v>43616</v>
-      </c>
-      <c r="J35">
-        <v>1.5803199999999999</v>
-      </c>
-      <c r="K35">
-        <v>113.09099999999999</v>
-      </c>
-      <c r="L35">
-        <v>77.64</v>
-      </c>
-      <c r="M35">
-        <f>J35*K35*L35</f>
-        <v>13875.818402476798</v>
-      </c>
-      <c r="N35">
-        <v>178.72</v>
-      </c>
-      <c r="O35" s="1">
-        <v>43760</v>
-      </c>
-      <c r="Q35">
-        <v>120.16</v>
-      </c>
-      <c r="S35" t="s">
-        <v>591</v>
-      </c>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="9:21">
-      <c r="I36" s="1">
-        <v>43623</v>
-      </c>
-      <c r="J36">
-        <v>4.7249610000000004</v>
-      </c>
-      <c r="K36">
-        <v>113.148</v>
-      </c>
-      <c r="M36">
-        <f>28510.31 + 13051.12</f>
-        <v>41561.43</v>
-      </c>
-      <c r="N36">
-        <v>534.62</v>
-      </c>
-      <c r="O36" s="1">
-        <v>43760</v>
-      </c>
-      <c r="Q36">
-        <v>120.16</v>
-      </c>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="9:21">
-      <c r="I37" s="1">
-        <v>43654</v>
-      </c>
-      <c r="J37">
-        <v>4.2873520000000003</v>
-      </c>
-      <c r="K37">
-        <v>123.4538</v>
-      </c>
-      <c r="M37">
-        <f>28510.31 + 13051.12</f>
-        <v>41561.43</v>
-      </c>
-      <c r="N37">
-        <v>529.29</v>
-      </c>
-      <c r="O37" s="1">
-        <v>43760</v>
-      </c>
-      <c r="Q37">
-        <v>120.16</v>
-      </c>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="9:21">
-      <c r="I38" s="1">
-        <v>43685</v>
-      </c>
-      <c r="J38">
-        <v>5.0156929999999997</v>
-      </c>
-      <c r="K38">
-        <v>108.04089999999999</v>
-      </c>
-      <c r="N38">
-        <v>541.9</v>
-      </c>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="9:21">
-      <c r="I39" s="1">
-        <v>43717</v>
-      </c>
-      <c r="J39">
-        <v>4.749536</v>
-      </c>
-      <c r="K39">
-        <v>110.9982</v>
-      </c>
-      <c r="N39">
-        <v>527.19000000000005</v>
-      </c>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="9:21">
-      <c r="I40" s="1">
-        <v>43747</v>
-      </c>
-      <c r="J40">
-        <v>5.1105739999999997</v>
-      </c>
-      <c r="K40">
-        <v>105.3952</v>
-      </c>
-      <c r="N40">
-        <f>J40*K40</f>
-        <v>538.62996884480003</v>
-      </c>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="9:21">
-      <c r="I41" s="1">
-        <v>43777</v>
-      </c>
-      <c r="J41">
-        <v>4.2716479999999999</v>
-      </c>
-      <c r="K41">
-        <v>122.9853</v>
-      </c>
-      <c r="M41">
-        <f>28510.31 + 13051.12</f>
-        <v>41561.43</v>
-      </c>
-      <c r="N41">
-        <f>J41*K41</f>
-        <v>525.34991077439997</v>
-      </c>
-      <c r="O41" s="1">
-        <v>43783</v>
-      </c>
-      <c r="Q41">
-        <v>122.18</v>
-      </c>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="9:21">
-      <c r="I42" s="1">
-        <v>43839</v>
-      </c>
-      <c r="J42">
-        <v>4.2163120000000003</v>
-      </c>
-      <c r="K42">
-        <v>122.9297</v>
-      </c>
-      <c r="M42">
-        <f>28510.31 + 13044.12</f>
-        <v>41554.43</v>
-      </c>
-      <c r="N42">
-        <f>J42*K42</f>
-        <v>518.3099692664</v>
-      </c>
-      <c r="O42" s="1">
-        <v>43867</v>
-      </c>
-      <c r="P42">
-        <v>15</v>
-      </c>
-      <c r="Q42">
-        <v>124.62</v>
-      </c>
-      <c r="R42">
-        <f>J42*Q42-P42</f>
-        <v>510.43680144000007</v>
-      </c>
-    </row>
-    <row r="43" spans="9:21">
-      <c r="I43" s="1">
-        <v>43808</v>
-      </c>
-      <c r="J43">
-        <v>4.3324699999999998</v>
-      </c>
-      <c r="K43">
-        <v>121.9119</v>
-      </c>
-      <c r="M43">
-        <f>28510.31 + 13051.12</f>
-        <v>41561.43</v>
-      </c>
-      <c r="N43">
-        <f>J43*K43</f>
-        <v>528.17964939299998</v>
-      </c>
-      <c r="O43" s="1">
-        <v>43867</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>124.62</v>
-      </c>
-      <c r="R43">
-        <f>J43*Q43-P43</f>
-        <v>539.9124114</v>
+        <v>175</v>
+      </c>
+      <c r="O12">
+        <v>58.4</v>
+      </c>
+      <c r="P12">
+        <v>58.3</v>
+      </c>
+      <c r="Q12">
+        <v>58.3</v>
+      </c>
+      <c r="R12">
+        <f>O12-P3</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S12">
+        <f>P12+P3+Q3</f>
+        <v>102.3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:P43" xr:uid="{7AFC6836-E8DA-2F4C-A30A-48CE52DE2518}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:Q39">
-    <sortCondition ref="I2:I39"/>
-  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="M1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11753,765 +10083,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G94" xr:uid="{495A481B-2FD4-1643-A889-6B4042C99C8F}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6551FCA-F565-3141-9575-A9B69266907A}">
-  <dimension ref="A1:P38"/>
-  <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2">
-        <v>18000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="B3">
-        <v>40000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H3" s="6">
-        <v>43622</v>
-      </c>
-      <c r="I3">
-        <v>4000</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>408</v>
-      </c>
-      <c r="O3" t="s">
-        <v>411</v>
-      </c>
-      <c r="P3">
-        <f>SUM(I3:I560)</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4">
-        <v>-8200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43623</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>412</v>
-      </c>
-      <c r="P4">
-        <f>SUM(K3:K560)</f>
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="73">
-        <v>43435</v>
-      </c>
-      <c r="B5">
-        <v>-100000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43624</v>
-      </c>
-      <c r="O5" t="s">
-        <v>413</v>
-      </c>
-      <c r="P5">
-        <f>P3-P4</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6">
-        <v>26000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7">
-        <v>14000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H7" s="6">
-        <v>43626</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8">
-        <v>20000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F8" t="s">
-        <v>405</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43627</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="H9" s="6">
-        <v>43628</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="H10" s="6">
-        <v>43629</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="H11" s="6">
-        <v>43630</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="H12" s="6">
-        <v>43631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="H13" s="6">
-        <v>43632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="H14" s="6">
-        <v>43633</v>
-      </c>
-      <c r="I14">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="H15" s="6">
-        <v>43634</v>
-      </c>
-      <c r="I15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="H16" s="6">
-        <v>43635</v>
-      </c>
-      <c r="I16">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="6">
-        <v>43636</v>
-      </c>
-      <c r="I17">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="6">
-        <v>43637</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="6">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="6">
-        <v>43639</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="6">
-        <v>43640</v>
-      </c>
-      <c r="I21">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="6">
-        <v>43641</v>
-      </c>
-      <c r="I22">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="6">
-        <v>43642</v>
-      </c>
-      <c r="I23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" s="6">
-        <v>43643</v>
-      </c>
-      <c r="I24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11">
-      <c r="H25" s="6">
-        <v>43644</v>
-      </c>
-      <c r="I25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="6">
-        <v>43645</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="6">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="6">
-        <v>43647</v>
-      </c>
-      <c r="J28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="6">
-        <v>43648</v>
-      </c>
-      <c r="J29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="6">
-        <v>43649</v>
-      </c>
-      <c r="I30">
-        <v>800</v>
-      </c>
-      <c r="K30">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="6">
-        <v>43650</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="6">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="6">
-        <v>43652</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="6">
-        <v>43653</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="6">
-        <v>43654</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="6">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="H37" s="6">
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="6">
-        <v>43657</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84395FC0-4E4E-FE4E-9D32-79BF7FC1E3C3}">
-  <dimension ref="A1:S12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="113" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="M1" s="113" t="s">
-        <v>511</v>
-      </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>503</v>
-      </c>
-      <c r="M2" t="s">
-        <v>494</v>
-      </c>
-      <c r="N2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O2" t="s">
-        <v>496</v>
-      </c>
-      <c r="P2" s="93" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q2" s="93" t="s">
-        <v>502</v>
-      </c>
-      <c r="R2" s="93" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>175</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>175</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-      <c r="P3">
-        <v>39</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B5" t="s">
-        <v>498</v>
-      </c>
-      <c r="M5" t="s">
-        <v>497</v>
-      </c>
-      <c r="N5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="B6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" t="s">
-        <v>500</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>504</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>505</v>
-      </c>
-      <c r="N6" t="s">
-        <v>507</v>
-      </c>
-      <c r="O6" t="s">
-        <v>499</v>
-      </c>
-      <c r="P6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" s="93" t="s">
-        <v>512</v>
-      </c>
-      <c r="S6" s="93" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7">
-        <v>125</v>
-      </c>
-      <c r="C7">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <f>C7+D3</f>
-        <v>81</v>
-      </c>
-      <c r="G7">
-        <f>D7+F3</f>
-        <v>47</v>
-      </c>
-      <c r="N7">
-        <v>175</v>
-      </c>
-      <c r="O7">
-        <v>58.4</v>
-      </c>
-      <c r="P7">
-        <v>58.3</v>
-      </c>
-      <c r="Q7">
-        <v>58.3</v>
-      </c>
-      <c r="R7">
-        <f>O7-P3</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="S7">
-        <f>P7-R3</f>
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>506</v>
-      </c>
-      <c r="N10" t="s">
-        <v>508</v>
-      </c>
-      <c r="O10" t="s">
-        <v>509</v>
-      </c>
-      <c r="P10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>504</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>505</v>
-      </c>
-      <c r="H11" s="93"/>
-      <c r="N11" t="s">
-        <v>507</v>
-      </c>
-      <c r="O11" t="s">
-        <v>499</v>
-      </c>
-      <c r="P11" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" s="93" t="s">
-        <v>512</v>
-      </c>
-      <c r="S11" s="93" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12">
-        <v>175</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <f>C12+D3</f>
-        <v>81</v>
-      </c>
-      <c r="G12">
-        <f>D12-D10+F3</f>
-        <v>47</v>
-      </c>
-      <c r="N12">
-        <v>175</v>
-      </c>
-      <c r="O12">
-        <v>58.4</v>
-      </c>
-      <c r="P12">
-        <v>58.3</v>
-      </c>
-      <c r="Q12">
-        <v>58.3</v>
-      </c>
-      <c r="R12">
-        <f>O12-P3</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="S12">
-        <f>P12+P3+Q3</f>
-        <v>102.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="M1:S1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13489,10 +11060,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13544,51 +11115,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32">
-      <c r="A1" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>385</v>
-      </c>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>514</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>516</v>
+      <c r="D1" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>442</v>
       </c>
       <c r="I1" s="16"/>
-      <c r="J1" s="96" t="s">
-        <v>357</v>
+      <c r="J1" s="85" t="s">
+        <v>353</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="M1" s="16"/>
-      <c r="O1" s="86" t="s">
-        <v>470</v>
+      <c r="O1" s="75" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E2" s="69">
         <v>672431779</v>
@@ -13599,24 +11170,24 @@
       </c>
       <c r="H2" s="69"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="87" t="s">
-        <v>361</v>
+      <c r="J2" s="76" t="s">
+        <v>357</v>
       </c>
       <c r="K2" s="69">
         <v>45644</v>
       </c>
       <c r="M2" s="16"/>
-      <c r="O2" s="78"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E3" s="69">
         <v>672441165</v>
@@ -13627,22 +11198,22 @@
       </c>
       <c r="H3" s="69"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="88" t="s">
-        <v>361</v>
+      <c r="J3" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="K3" s="69"/>
       <c r="M3" s="16"/>
-      <c r="O3" s="78"/>
+      <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E4" s="69">
         <v>672445825</v>
@@ -13653,8 +11224,8 @@
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="89" t="s">
-        <v>374</v>
+      <c r="J4" s="78" t="s">
+        <v>370</v>
       </c>
       <c r="K4" s="69">
         <v>970</v>
@@ -13664,13 +11235,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E5" s="69">
         <v>672445826</v>
@@ -13681,8 +11252,8 @@
       </c>
       <c r="H5" s="69"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="89" t="s">
-        <v>376</v>
+      <c r="J5" s="78" t="s">
+        <v>372</v>
       </c>
       <c r="K5" s="69">
         <v>39072</v>
@@ -13692,14 +11263,14 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="69">
         <v>2007</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -13710,8 +11281,8 @@
         <v>132.12479999999999</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="J6" s="89" t="s">
-        <v>375</v>
+      <c r="J6" s="78" t="s">
+        <v>371</v>
       </c>
       <c r="K6" s="69">
         <v>5602</v>
@@ -13721,11 +11292,11 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -13734,8 +11305,8 @@
       </c>
       <c r="H7" s="69"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="87" t="s">
-        <v>369</v>
+      <c r="J7" s="76" t="s">
+        <v>365</v>
       </c>
       <c r="K7" s="69">
         <v>460000</v>
@@ -13745,19 +11316,19 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C8" s="1">
         <v>42883</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G8" s="16">
         <v>5000</v>
@@ -13766,31 +11337,31 @@
         <v>153.1217</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="J8" s="88" t="s">
-        <v>386</v>
+      <c r="J8" s="77" t="s">
+        <v>382</v>
       </c>
       <c r="K8" s="69"/>
       <c r="M8" s="16"/>
-      <c r="O8" s="90">
+      <c r="O8" s="79">
         <f>SUM(O9:O13)</f>
         <v>144445</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1">
         <v>43054</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G9" s="16">
         <v>10000</v>
@@ -13799,8 +11370,8 @@
         <v>543.77380000000005</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="89" t="s">
-        <v>363</v>
+      <c r="J9" s="78" t="s">
+        <v>359</v>
       </c>
       <c r="K9" s="69">
         <v>25000</v>
@@ -13812,19 +11383,19 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C10" s="1">
         <v>43054</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G10" s="16">
         <v>10000</v>
@@ -13833,8 +11404,8 @@
         <v>471.88510000000002</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="89" t="s">
-        <v>364</v>
+      <c r="J10" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="K10" s="69">
         <v>50000</v>
@@ -13846,19 +11417,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C11" s="1">
         <v>43078</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G11" s="16">
         <v>15000</v>
@@ -13867,8 +11438,8 @@
         <v>749.55780000000004</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="89" t="s">
-        <v>365</v>
+      <c r="J11" s="78" t="s">
+        <v>361</v>
       </c>
       <c r="K11" s="69">
         <v>25000</v>
@@ -13880,19 +11451,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C12" s="1">
         <v>43166</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G12" s="16">
         <v>10000</v>
@@ -13901,8 +11472,8 @@
         <v>53.654299999999999</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="89" t="s">
-        <v>366</v>
+      <c r="J12" s="78" t="s">
+        <v>362</v>
       </c>
       <c r="K12" s="69">
         <v>10000</v>
@@ -13913,19 +11484,19 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C13" s="1">
         <v>43305</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="16">
         <v>5000</v>
@@ -13934,8 +11505,8 @@
         <v>153.1217</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="89" t="s">
-        <v>367</v>
+      <c r="J13" s="78" t="s">
+        <v>363</v>
       </c>
       <c r="K13" s="69">
         <v>35000</v>
@@ -13946,19 +11517,19 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C14" s="1">
         <v>43305</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G14" s="16">
         <v>10000</v>
@@ -13967,8 +11538,8 @@
         <v>471.88510000000002</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="89" t="s">
-        <v>482</v>
+      <c r="J14" s="78" t="s">
+        <v>409</v>
       </c>
       <c r="K14" s="69">
         <v>20000</v>
@@ -13976,19 +11547,19 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1">
         <v>43311</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G15" s="16">
         <v>10000</v>
@@ -13997,8 +11568,8 @@
         <v>471.88510000000002</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="89" t="s">
-        <v>518</v>
+      <c r="J15" s="78" t="s">
+        <v>444</v>
       </c>
       <c r="K15" s="69">
         <v>175000</v>
@@ -14006,19 +11577,19 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C16" s="1">
         <v>43311</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G16" s="16">
         <v>10000</v>
@@ -14026,26 +11597,26 @@
       <c r="H16" s="69">
         <v>153.1217</v>
       </c>
-      <c r="J16" s="88" t="s">
-        <v>468</v>
+      <c r="J16" s="77" t="s">
+        <v>395</v>
       </c>
       <c r="K16" s="69"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C17" s="1">
         <v>43313</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G17" s="16">
         <v>10000</v>
@@ -14053,8 +11624,8 @@
       <c r="H17" s="69">
         <v>749.55780000000004</v>
       </c>
-      <c r="J17" s="89" t="s">
-        <v>368</v>
+      <c r="J17" s="78" t="s">
+        <v>364</v>
       </c>
       <c r="K17" s="69">
         <v>90000</v>
@@ -14062,19 +11633,19 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C18" s="1">
         <v>43315</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G18" s="16">
         <v>15000</v>
@@ -14082,32 +11653,32 @@
       <c r="H18" s="69">
         <v>153.1217</v>
       </c>
-      <c r="J18" s="89" t="s">
-        <v>517</v>
+      <c r="J18" s="78" t="s">
+        <v>443</v>
       </c>
       <c r="K18" s="69">
         <v>30000</v>
       </c>
-      <c r="O18" s="90">
+      <c r="O18" s="79">
         <f>SUM(O19:O20)</f>
         <v>32884.5</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C19" s="1">
         <v>43318</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G19" s="16">
         <v>15000</v>
@@ -14115,8 +11686,8 @@
       <c r="H19" s="69">
         <v>53.654299999999999</v>
       </c>
-      <c r="J19" s="87" t="s">
-        <v>471</v>
+      <c r="J19" s="76" t="s">
+        <v>398</v>
       </c>
       <c r="K19" s="69">
         <v>42593.1</v>
@@ -14127,20 +11698,20 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C20" s="1">
         <v>43434</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G20" s="16">
         <v>20000</v>
@@ -14148,8 +11719,8 @@
       <c r="H20" s="69">
         <v>471.88510000000002</v>
       </c>
-      <c r="J20" s="88" t="s">
-        <v>472</v>
+      <c r="J20" s="77" t="s">
+        <v>399</v>
       </c>
       <c r="K20" s="69"/>
       <c r="O20" s="16">
@@ -14158,23 +11729,23 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="16" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="C21" s="1">
         <v>43595</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="G21" s="11">
         <v>19157.099999999999</v>
       </c>
       <c r="H21" s="69"/>
-      <c r="J21" s="89" t="s">
-        <v>473</v>
+      <c r="J21" s="78" t="s">
+        <v>400</v>
       </c>
       <c r="K21" s="69">
         <v>19157.099999999999</v>
@@ -14183,23 +11754,23 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="16" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="C22" s="1">
         <v>43321</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>474</v>
+        <v>401</v>
       </c>
       <c r="G22" s="11">
         <v>23436</v>
       </c>
       <c r="H22" s="69"/>
-      <c r="J22" s="89" t="s">
-        <v>474</v>
+      <c r="J22" s="78" t="s">
+        <v>401</v>
       </c>
       <c r="K22" s="69">
         <v>23436</v>
@@ -14208,19 +11779,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C23" s="1">
         <v>43866</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G23" s="16">
         <v>20000</v>
@@ -14228,8 +11799,8 @@
       <c r="H23" s="69">
         <v>30.508600000000001</v>
       </c>
-      <c r="J23" s="87" t="s">
-        <v>469</v>
+      <c r="J23" s="76" t="s">
+        <v>396</v>
       </c>
       <c r="K23" s="69">
         <v>548237.1</v>
@@ -14237,16 +11808,16 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G24" s="16">
         <v>75000</v>
@@ -14257,16 +11828,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G25" s="16">
         <v>100000</v>
@@ -14277,19 +11848,19 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C26" s="1">
         <v>43973</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G26" s="16">
         <v>50000</v>
@@ -14346,30 +11917,30 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="52" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="52" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>237</v>
@@ -14378,11 +11949,11 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E2" s="69">
         <v>672431779</v>
@@ -14394,7 +11965,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K2">
         <f>SUMIF($A$2:$A$100,J2,$G$2:$G$100)</f>
@@ -14404,11 +11975,11 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E3" s="69">
         <v>672441165</v>
@@ -14420,7 +11991,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K3">
         <f>SUMIF($A$2:$A$100,J3,$G$2:$G$100)</f>
@@ -14430,11 +12001,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E4" s="69">
         <v>672445825</v>
@@ -14451,11 +12022,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E5" s="69">
         <v>672445826</v>
@@ -14472,7 +12043,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B6" s="16"/>
       <c r="D6" s="16" t="s">
@@ -14491,11 +12062,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -14510,16 +12081,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G8" s="16">
         <v>10000</v>
@@ -14532,16 +12103,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G9" s="16">
         <v>30000</v>
@@ -14554,16 +12125,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G10" s="16">
         <v>10000</v>
@@ -14576,16 +12147,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G11" s="16">
         <v>10000</v>
@@ -14598,16 +12169,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G12" s="16">
         <v>25000</v>
@@ -14620,19 +12191,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C13" s="1">
         <v>43312</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="16">
         <v>15000</v>
@@ -14645,19 +12216,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C14" s="1">
         <v>43314</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G14" s="16">
         <v>10000</v>
@@ -14670,19 +12241,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1">
         <v>43318</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G15" s="16">
         <v>15000</v>
@@ -14695,20 +12266,20 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C16" s="1">
         <v>43434</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G16" s="16">
         <v>20000</v>
@@ -14779,7 +12350,7 @@
         <v>171</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" thickTop="1">
@@ -14799,10 +12370,10 @@
         <v>132</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14822,10 +12393,10 @@
         <v>134</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14845,10 +12416,10 @@
         <v>134</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:10">
